--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -28,12 +28,12 @@
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="influenzavirustype">'cv_sample'!$AS$1:$AS$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AW$1:$AW$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
     <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="701">
   <si>
     <t>alias</t>
   </si>
@@ -462,6 +462,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -561,6 +573,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -678,6 +708,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -685,6 +718,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2648,10 +2684,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2692,10 +2728,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2758,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2742,7 +2778,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2759,7 +2795,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2776,7 +2812,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2793,7 +2829,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2810,7 +2846,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2827,7 +2863,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2844,7 +2880,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2861,7 +2897,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2878,7 +2914,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2892,7 +2928,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2906,7 +2942,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2920,7 +2956,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2934,7 +2970,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2944,8 +2980,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2955,8 +2994,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2966,8 +3008,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2977,8 +3022,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2989,7 +3037,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3000,7 +3048,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3011,7 +3059,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3022,7 +3070,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3033,7 +3081,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3044,7 +3092,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3055,7 +3103,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3066,7 +3114,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3077,7 +3125,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3088,7 +3136,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3099,7 +3147,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3110,7 +3158,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3121,7 +3169,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3132,7 +3180,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3140,7 +3188,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3148,7 +3196,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3156,7 +3204,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3164,7 +3212,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3172,7 +3220,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3180,7 +3228,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3188,7 +3236,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3196,7 +3244,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3204,7 +3252,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3212,176 +3260,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3406,27 +3494,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3449,122 +3537,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3591,378 +3679,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -4021,107 +4109,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="T1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="X1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AC1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AG1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AH1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AM1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AS1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AW1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="BF1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BJ1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="T2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="X2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="AC2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AG2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AH2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AL2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AM2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AS2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AW2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="BF2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BJ2" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AC3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AG3" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AH3" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AL3" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AM3" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AS3" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BF3" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4129,36 +4217,36 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AC4" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AG4" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AL4" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AM4" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="BF4" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BJ4" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="8:62">
       <c r="AC5" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AG5" t="s">
         <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="AM5" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4166,126 +4254,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AC6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG6" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AL6" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AM6" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="BF6" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AC7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AL7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AM7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="BF7" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AC8" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AL8" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AM8" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AC9" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AL9" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="AM9" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AC10" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AL10" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="AM10" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AC11" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AL11" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="AM11" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AC12" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AL12" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AM12" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AC13" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AL13" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AM13" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AC14" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AL14" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AM14" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AC15" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AM15" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AC16" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AM16" t="s">
         <v>116</v>
@@ -4293,1360 +4381,1360 @@
     </row>
     <row r="17" spans="29:39">
       <c r="AC17" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AM17" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="29:39">
       <c r="AC18" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="29:39">
       <c r="AC19" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="29:39">
       <c r="AC20" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="29:39">
       <c r="AC21" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="29:39">
       <c r="AC22" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="29:39">
       <c r="AC23" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="29:39">
       <c r="AC24" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="29:39">
       <c r="AC25" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="29:39">
       <c r="AC26" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="29:39">
       <c r="AC27" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="29:39">
       <c r="AC28" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="29:39">
       <c r="AC29" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="29:39">
       <c r="AC30" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="29:39">
       <c r="AC31" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="29:39">
       <c r="AC32" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="29:29">
       <c r="AC33" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="29:29">
       <c r="AC34" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="29:29">
       <c r="AC35" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="29:29">
       <c r="AC36" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="29:29">
       <c r="AC37" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="29:29">
       <c r="AC38" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="29:29">
       <c r="AC39" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="29:29">
       <c r="AC40" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="29:29">
       <c r="AC41" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="29:29">
       <c r="AC42" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="29:29">
       <c r="AC43" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="29:29">
       <c r="AC44" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="29:29">
       <c r="AC45" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="29:29">
       <c r="AC46" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="29:29">
       <c r="AC47" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="29:29">
       <c r="AC48" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="29:29">
       <c r="AC49" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="29:29">
       <c r="AC50" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="29:29">
       <c r="AC51" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="29:29">
       <c r="AC52" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="29:29">
       <c r="AC53" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="29:29">
       <c r="AC54" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="29:29">
       <c r="AC55" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56" spans="29:29">
       <c r="AC56" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="29:29">
       <c r="AC57" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="29:29">
       <c r="AC58" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59" spans="29:29">
       <c r="AC59" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" spans="29:29">
       <c r="AC60" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="29:29">
       <c r="AC61" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="29:29">
       <c r="AC62" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="29:29">
       <c r="AC63" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="29:29">
       <c r="AC64" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="29:29">
       <c r="AC65" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="29:29">
       <c r="AC66" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="29:29">
       <c r="AC67" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="29:29">
       <c r="AC68" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="29:29">
       <c r="AC69" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="29:29">
       <c r="AC70" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="29:29">
       <c r="AC71" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="72" spans="29:29">
       <c r="AC72" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="29:29">
       <c r="AC73" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="29:29">
       <c r="AC74" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="29:29">
       <c r="AC75" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="29:29">
       <c r="AC76" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="29:29">
       <c r="AC77" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="29:29">
       <c r="AC78" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="29:29">
       <c r="AC79" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="80" spans="29:29">
       <c r="AC80" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="29:29">
       <c r="AC81" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="82" spans="29:29">
       <c r="AC82" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="29:29">
       <c r="AC83" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="84" spans="29:29">
       <c r="AC84" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="29:29">
       <c r="AC85" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="29:29">
       <c r="AC86" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" spans="29:29">
       <c r="AC87" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="29:29">
       <c r="AC88" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" spans="29:29">
       <c r="AC89" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="90" spans="29:29">
       <c r="AC90" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="29:29">
       <c r="AC91" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="29:29">
       <c r="AC92" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="29:29">
       <c r="AC93" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="29:29">
       <c r="AC94" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="29:29">
       <c r="AC95" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="29:29">
       <c r="AC96" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="97" spans="29:29">
       <c r="AC97" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="29:29">
       <c r="AC98" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="29:29">
       <c r="AC99" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="29:29">
       <c r="AC100" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="101" spans="29:29">
       <c r="AC101" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="29:29">
       <c r="AC102" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="103" spans="29:29">
       <c r="AC103" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="104" spans="29:29">
       <c r="AC104" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="29:29">
       <c r="AC105" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="106" spans="29:29">
       <c r="AC106" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="29:29">
       <c r="AC107" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="29:29">
       <c r="AC108" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="29:29">
       <c r="AC109" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="29:29">
       <c r="AC110" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="29:29">
       <c r="AC111" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="29:29">
       <c r="AC112" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="29:29">
       <c r="AC113" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="114" spans="29:29">
       <c r="AC114" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="29:29">
       <c r="AC115" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="29:29">
       <c r="AC116" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="29:29">
       <c r="AC117" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118" spans="29:29">
       <c r="AC118" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119" spans="29:29">
       <c r="AC119" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="120" spans="29:29">
       <c r="AC120" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="121" spans="29:29">
       <c r="AC121" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="29:29">
       <c r="AC122" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="29:29">
       <c r="AC123" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="29:29">
       <c r="AC124" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="29:29">
       <c r="AC125" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="29:29">
       <c r="AC126" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="29:29">
       <c r="AC127" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128" spans="29:29">
       <c r="AC128" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="29:29">
       <c r="AC129" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="29:29">
       <c r="AC130" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="131" spans="29:29">
       <c r="AC131" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="132" spans="29:29">
       <c r="AC132" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="29:29">
       <c r="AC133" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" spans="29:29">
       <c r="AC134" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="135" spans="29:29">
       <c r="AC135" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="29:29">
       <c r="AC136" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="29:29">
       <c r="AC137" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="29:29">
       <c r="AC138" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="29:29">
       <c r="AC139" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="140" spans="29:29">
       <c r="AC140" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="141" spans="29:29">
       <c r="AC141" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="29:29">
       <c r="AC142" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" spans="29:29">
       <c r="AC143" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="144" spans="29:29">
       <c r="AC144" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="145" spans="29:29">
       <c r="AC145" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="146" spans="29:29">
       <c r="AC146" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="29:29">
       <c r="AC147" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="29:29">
       <c r="AC148" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="149" spans="29:29">
       <c r="AC149" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="150" spans="29:29">
       <c r="AC150" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="151" spans="29:29">
       <c r="AC151" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="29:29">
       <c r="AC152" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="153" spans="29:29">
       <c r="AC153" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="154" spans="29:29">
       <c r="AC154" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155" spans="29:29">
       <c r="AC155" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="29:29">
       <c r="AC156" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="29:29">
       <c r="AC157" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="158" spans="29:29">
       <c r="AC158" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="29:29">
       <c r="AC159" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="29:29">
       <c r="AC160" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="29:29">
       <c r="AC161" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="29:29">
       <c r="AC162" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="29:29">
       <c r="AC163" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="29:29">
       <c r="AC164" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="29:29">
       <c r="AC165" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="29:29">
       <c r="AC166" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="29:29">
       <c r="AC167" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="29:29">
       <c r="AC168" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="29:29">
       <c r="AC169" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="29:29">
       <c r="AC170" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="29:29">
       <c r="AC171" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="29:29">
       <c r="AC172" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="29:29">
       <c r="AC173" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="174" spans="29:29">
       <c r="AC174" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="29:29">
       <c r="AC175" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="29:29">
       <c r="AC176" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177" spans="29:29">
       <c r="AC177" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="29:29">
       <c r="AC178" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="29:29">
       <c r="AC179" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="29:29">
       <c r="AC180" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="29:29">
       <c r="AC181" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="29:29">
       <c r="AC182" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="183" spans="29:29">
       <c r="AC183" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="29:29">
       <c r="AC184" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="29:29">
       <c r="AC185" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="29:29">
       <c r="AC186" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="29:29">
       <c r="AC187" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="29:29">
       <c r="AC188" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="189" spans="29:29">
       <c r="AC189" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="190" spans="29:29">
       <c r="AC190" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="191" spans="29:29">
       <c r="AC191" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="192" spans="29:29">
       <c r="AC192" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="193" spans="29:29">
       <c r="AC193" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="194" spans="29:29">
       <c r="AC194" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="195" spans="29:29">
       <c r="AC195" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="29:29">
       <c r="AC196" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="197" spans="29:29">
       <c r="AC197" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="198" spans="29:29">
       <c r="AC198" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="199" spans="29:29">
       <c r="AC199" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="200" spans="29:29">
       <c r="AC200" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="29:29">
       <c r="AC201" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" spans="29:29">
       <c r="AC202" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203" spans="29:29">
       <c r="AC203" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="204" spans="29:29">
       <c r="AC204" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="205" spans="29:29">
       <c r="AC205" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="206" spans="29:29">
       <c r="AC206" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="207" spans="29:29">
       <c r="AC207" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="208" spans="29:29">
       <c r="AC208" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="209" spans="29:29">
       <c r="AC209" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="210" spans="29:29">
       <c r="AC210" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="211" spans="29:29">
       <c r="AC211" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="29:29">
       <c r="AC212" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="213" spans="29:29">
       <c r="AC213" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="29:29">
       <c r="AC214" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="215" spans="29:29">
       <c r="AC215" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="216" spans="29:29">
       <c r="AC216" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="217" spans="29:29">
       <c r="AC217" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="218" spans="29:29">
       <c r="AC218" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="29:29">
       <c r="AC219" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="220" spans="29:29">
       <c r="AC220" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="221" spans="29:29">
       <c r="AC221" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="222" spans="29:29">
       <c r="AC222" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="223" spans="29:29">
       <c r="AC223" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="224" spans="29:29">
       <c r="AC224" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="29:29">
       <c r="AC225" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="226" spans="29:29">
       <c r="AC226" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="227" spans="29:29">
       <c r="AC227" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="29:29">
       <c r="AC228" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="229" spans="29:29">
       <c r="AC229" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="230" spans="29:29">
       <c r="AC230" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="231" spans="29:29">
       <c r="AC231" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="232" spans="29:29">
       <c r="AC232" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233" spans="29:29">
       <c r="AC233" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="234" spans="29:29">
       <c r="AC234" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="29:29">
       <c r="AC235" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="236" spans="29:29">
       <c r="AC236" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="29:29">
       <c r="AC237" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="238" spans="29:29">
       <c r="AC238" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="29:29">
       <c r="AC239" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="29:29">
       <c r="AC240" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="29:29">
       <c r="AC241" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="29:29">
       <c r="AC242" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="29:29">
       <c r="AC243" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="29:29">
       <c r="AC244" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="245" spans="29:29">
       <c r="AC245" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="29:29">
       <c r="AC246" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="247" spans="29:29">
       <c r="AC247" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="248" spans="29:29">
       <c r="AC248" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="29:29">
       <c r="AC249" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="250" spans="29:29">
       <c r="AC250" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="251" spans="29:29">
       <c r="AC251" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="29:29">
       <c r="AC252" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="253" spans="29:29">
       <c r="AC253" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="254" spans="29:29">
       <c r="AC254" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="29:29">
       <c r="AC255" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="29:29">
       <c r="AC256" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="257" spans="29:29">
       <c r="AC257" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="258" spans="29:29">
       <c r="AC258" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="259" spans="29:29">
       <c r="AC259" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="260" spans="29:29">
       <c r="AC260" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="29:29">
       <c r="AC261" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="262" spans="29:29">
       <c r="AC262" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263" spans="29:29">
       <c r="AC263" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="29:29">
       <c r="AC264" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="265" spans="29:29">
       <c r="AC265" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="29:29">
       <c r="AC266" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="267" spans="29:29">
       <c r="AC267" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="268" spans="29:29">
       <c r="AC268" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="269" spans="29:29">
       <c r="AC269" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="29:29">
       <c r="AC270" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="271" spans="29:29">
       <c r="AC271" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="272" spans="29:29">
       <c r="AC272" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="273" spans="29:29">
       <c r="AC273" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="274" spans="29:29">
       <c r="AC274" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="275" spans="29:29">
       <c r="AC275" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276" spans="29:29">
       <c r="AC276" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="277" spans="29:29">
       <c r="AC277" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="278" spans="29:29">
       <c r="AC278" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="279" spans="29:29">
       <c r="AC279" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="280" spans="29:29">
       <c r="AC280" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="281" spans="29:29">
       <c r="AC281" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="282" spans="29:29">
       <c r="AC282" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="283" spans="29:29">
       <c r="AC283" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="284" spans="29:29">
       <c r="AC284" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="285" spans="29:29">
       <c r="AC285" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="286" spans="29:29">
       <c r="AC286" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="287" spans="29:29">
       <c r="AC287" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -1866,15 +1866,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1937,8 +1935,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>diseased</t>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -111,7 +111,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,23 +18,23 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AC$1:$AC$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AC$1:$AC$288</definedName>
     <definedName name="hospitalisation">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BJ$1:$BJ$4</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$AH$1:$AH$3</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$AI$1:$AI$3</definedName>
     <definedName name="hosthabitat">'cv_sample'!$BF$1:$BF$7</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$AL$1:$AL$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$AM$1:$AM$17</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$AM$1:$AM$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$AN$1:$AN$17</definedName>
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
-    <definedName name="influenzavirustype">'cv_sample'!$AS$1:$AS$3</definedName>
+    <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AW$1:$AW$2</definedName>
+    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AH$1:$AH$7</definedName>
     <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="702">
   <si>
     <t>alias</t>
   </si>
@@ -870,1015 +870,1024 @@
     <t>(Optional) Is the virus stock used for the inoculation available?</t>
   </si>
   <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
     <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
+    <t>type exposure</t>
+  </si>
+  <si>
+    <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
+  </si>
+  <si>
+    <t>personal protective equipment</t>
+  </si>
+  <si>
+    <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
+  </si>
+  <si>
+    <t>hospitalisation</t>
+  </si>
+  <si>
+    <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
+  </si>
+  <si>
+    <t>antiviral treatment</t>
+  </si>
+  <si>
+    <t>(Optional) Antiviral treatment used for this subject, such as zanamavir oseltamivir, amantadine. example: rimantadine</t>
+  </si>
+  <si>
+    <t>antiviral treatment initiation</t>
+  </si>
+  <si>
+    <t>(Optional) Initiation of antiviral treatment after onset of clinical symptoms in days. example: 2.5</t>
+  </si>
+  <si>
+    <t>antiviral treatment dosage</t>
+  </si>
+  <si>
+    <t>(Optional) Dosage of the treatment taken by the subject. example: 0.05 mg</t>
+  </si>
+  <si>
+    <t>antiviral treatment duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of antiviral treatment after onset of clinical symptoms in days.example: 5</t>
+  </si>
+  <si>
+    <t>influenza vaccination type</t>
+  </si>
+  <si>
+    <t>(Optional) Influenza vaccinations that have been administered to the subject over the last year. example: 2009 h1n1 flumist</t>
+  </si>
+  <si>
+    <t>influenza vaccination date</t>
+  </si>
+  <si>
+    <t>(Optional) Date that the influenza vaccination was administered to the subject over the past year. format: yyyy-mm-dd. example: 2007-05-12</t>
+  </si>
+  <si>
+    <t>documented</t>
+  </si>
+  <si>
+    <t>self reported</t>
+  </si>
+  <si>
+    <t>source of vaccination information</t>
+  </si>
+  <si>
+    <t>(Optional) Designation of information related to vaccination history as self reported or documented.</t>
+  </si>
+  <si>
+    <t>vaccine lot number</t>
+  </si>
+  <si>
+    <t>(Optional) Lot number of the vaccine.</t>
+  </si>
+  <si>
+    <t>vaccine manufacturer</t>
+  </si>
+  <si>
+    <t>(Optional) Manufacturer of the vaccine.</t>
+  </si>
+  <si>
+    <t>vaccine dosage</t>
+  </si>
+  <si>
+    <t>(Optional) Dosage of the vaccine taken by the subject. example: 0.05 ml</t>
+  </si>
+  <si>
+    <t>influenza-like illness at the time of sample collection</t>
+  </si>
+  <si>
+    <t>(Optional) Is the subject at the time of sample collection considered to have influenza like illness?</t>
+  </si>
+  <si>
+    <t>illness onset date</t>
+  </si>
+  <si>
+    <t>(Optional) Date the subject showed an onset of symptoms. format: yyyy-mm-dd. example: 2011-10-20</t>
+  </si>
+  <si>
+    <t>illness duration</t>
+  </si>
+  <si>
+    <t>(Optional) The number of days the illness lasted. example: 4</t>
+  </si>
+  <si>
+    <t>illness symptoms</t>
+  </si>
+  <si>
+    <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days</t>
-  </si>
-  <si>
-    <t>type exposure</t>
-  </si>
-  <si>
-    <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
-  </si>
-  <si>
-    <t>personal protective equipment</t>
-  </si>
-  <si>
-    <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
-  </si>
-  <si>
-    <t>hospitalisation</t>
-  </si>
-  <si>
-    <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
-  </si>
-  <si>
-    <t>antiviral treatment</t>
-  </si>
-  <si>
-    <t>(Optional) Antiviral treatment used for this subject, such as zanamavir oseltamivir, amantadine. example: rimantadine</t>
-  </si>
-  <si>
-    <t>antiviral treatment initiation</t>
-  </si>
-  <si>
-    <t>(Optional) Initiation of antiviral treatment after onset of clinical symptoms in days. example: 2.5</t>
-  </si>
-  <si>
-    <t>antiviral treatment dosage</t>
-  </si>
-  <si>
-    <t>(Optional) Dosage of the treatment taken by the subject. example: 0.05 mg</t>
-  </si>
-  <si>
-    <t>antiviral treatment duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of antiviral treatment after onset of clinical symptoms in days.example: 5</t>
-  </si>
-  <si>
-    <t>influenza vaccination type</t>
-  </si>
-  <si>
-    <t>(Optional) Influenza vaccinations that have been administered to the subject over the last year. example: 2009 h1n1 flumist</t>
-  </si>
-  <si>
-    <t>influenza vaccination date</t>
-  </si>
-  <si>
-    <t>(Optional) Date that the influenza vaccination was administered to the subject over the past year. format: yyyy-mm-dd. example: 2007-05-12</t>
-  </si>
-  <si>
-    <t>documented</t>
-  </si>
-  <si>
-    <t>self reported</t>
-  </si>
-  <si>
-    <t>source of vaccination information</t>
-  </si>
-  <si>
-    <t>(Optional) Designation of information related to vaccination history as self reported or documented.</t>
-  </si>
-  <si>
-    <t>vaccine lot number</t>
-  </si>
-  <si>
-    <t>(Optional) Lot number of the vaccine.</t>
-  </si>
-  <si>
-    <t>vaccine manufacturer</t>
-  </si>
-  <si>
-    <t>(Optional) Manufacturer of the vaccine.</t>
-  </si>
-  <si>
-    <t>vaccine dosage</t>
-  </si>
-  <si>
-    <t>(Optional) Dosage of the vaccine taken by the subject. example: 0.05 ml</t>
-  </si>
-  <si>
-    <t>influenza-like illness at the time of sample collection</t>
-  </si>
-  <si>
-    <t>(Optional) Is the subject at the time of sample collection considered to have influenza like illness?</t>
-  </si>
-  <si>
-    <t>illness onset date</t>
-  </si>
-  <si>
-    <t>(Optional) Date the subject showed an onset of symptoms. format: yyyy-mm-dd. example: 2011-10-20</t>
-  </si>
-  <si>
-    <t>illness duration</t>
-  </si>
-  <si>
-    <t>(Optional) The number of days the illness lasted. example: 4</t>
-  </si>
-  <si>
-    <t>illness symptoms</t>
-  </si>
-  <si>
-    <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -2053,12 +2062,6 @@
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
-  </si>
-  <si>
-    <t>sample storage conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location</t>
   </si>
   <si>
     <t>definition for seropositive sample</t>
@@ -3754,109 +3757,109 @@
         <v>315</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -3945,109 +3948,109 @@
         <v>316</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -4067,22 +4070,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS3:AS101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
       <formula1>influenzavirustype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW3:AW101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
       <formula1>lineageswlrequiredforH1N1viruses</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
@@ -4098,7 +4101,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:BJ287"/>
+  <dimension ref="H1:BJ288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4120,29 +4123,29 @@
       <c r="AC1" t="s">
         <v>317</v>
       </c>
-      <c r="AG1" t="s">
-        <v>612</v>
-      </c>
       <c r="AH1" t="s">
-        <v>620</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>631</v>
+        <v>615</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>623</v>
       </c>
       <c r="AM1" t="s">
-        <v>635</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AW1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AX1" t="s">
         <v>271</v>
       </c>
       <c r="BF1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BJ1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="8:62">
@@ -4161,52 +4164,52 @@
       <c r="AC2" t="s">
         <v>318</v>
       </c>
-      <c r="AG2" t="s">
-        <v>613</v>
-      </c>
       <c r="AH2" t="s">
-        <v>621</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>632</v>
+        <v>616</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>624</v>
       </c>
       <c r="AM2" t="s">
-        <v>636</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>652</v>
-      </c>
-      <c r="AW2" t="s">
+        <v>635</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>639</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>655</v>
+      </c>
+      <c r="AX2" t="s">
         <v>272</v>
       </c>
       <c r="BF2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BJ2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AC3" t="s">
         <v>319</v>
       </c>
-      <c r="AG3" t="s">
-        <v>614</v>
-      </c>
       <c r="AH3" t="s">
-        <v>622</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>592</v>
+        <v>617</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>625</v>
       </c>
       <c r="AM3" t="s">
-        <v>637</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>653</v>
+        <v>593</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>640</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>656</v>
       </c>
       <c r="BF3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4216,34 +4219,34 @@
       <c r="AC4" t="s">
         <v>320</v>
       </c>
-      <c r="AG4" t="s">
-        <v>615</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AH4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN4" t="s">
         <v>593</v>
       </c>
-      <c r="AM4" t="s">
-        <v>592</v>
-      </c>
       <c r="BF4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BJ4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="8:62">
       <c r="AC5" t="s">
         <v>321</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>116</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN5" t="s">
         <v>594</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>593</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4253,208 +4256,208 @@
       <c r="AC6" t="s">
         <v>322</v>
       </c>
-      <c r="AG6" t="s">
-        <v>616</v>
-      </c>
-      <c r="AL6" t="s">
+      <c r="AH6" t="s">
+        <v>619</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AN6" t="s">
         <v>595</v>
       </c>
-      <c r="AM6" t="s">
-        <v>594</v>
-      </c>
       <c r="BF6" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AC7" t="s">
         <v>323</v>
       </c>
-      <c r="AG7" t="s">
-        <v>617</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AH7" t="s">
+        <v>620</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN7" t="s">
         <v>596</v>
       </c>
-      <c r="AM7" t="s">
-        <v>595</v>
-      </c>
       <c r="BF7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AC8" t="s">
         <v>324</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN8" t="s">
         <v>597</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AC9" t="s">
         <v>325</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN9" t="s">
         <v>598</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AC10" t="s">
         <v>326</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN10" t="s">
         <v>599</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AC11" t="s">
         <v>327</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN11" t="s">
         <v>600</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AC12" t="s">
         <v>328</v>
       </c>
-      <c r="AL12" t="s">
-        <v>601</v>
-      </c>
       <c r="AM12" t="s">
-        <v>638</v>
+        <v>602</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AC13" t="s">
         <v>329</v>
       </c>
-      <c r="AL13" t="s">
-        <v>602</v>
-      </c>
       <c r="AM13" t="s">
-        <v>600</v>
+        <v>603</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AC14" t="s">
         <v>330</v>
       </c>
-      <c r="AL14" t="s">
-        <v>603</v>
-      </c>
       <c r="AM14" t="s">
-        <v>601</v>
+        <v>604</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AC15" t="s">
         <v>331</v>
       </c>
-      <c r="AM15" t="s">
-        <v>602</v>
+      <c r="AN15" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AC16" t="s">
         <v>332</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="29:39">
+    <row r="17" spans="29:40">
       <c r="AC17" t="s">
         <v>333</v>
       </c>
-      <c r="AM17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="18" spans="29:39">
+      <c r="AN17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="29:40">
       <c r="AC18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="29:39">
+    <row r="19" spans="29:40">
       <c r="AC19" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="29:39">
+    <row r="20" spans="29:40">
       <c r="AC20" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="29:39">
+    <row r="21" spans="29:40">
       <c r="AC21" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="22" spans="29:39">
+    <row r="22" spans="29:40">
       <c r="AC22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="29:39">
+    <row r="23" spans="29:40">
       <c r="AC23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="29:39">
+    <row r="24" spans="29:40">
       <c r="AC24" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="29:39">
+    <row r="25" spans="29:40">
       <c r="AC25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="29:39">
+    <row r="26" spans="29:40">
       <c r="AC26" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="27" spans="29:39">
+    <row r="27" spans="29:40">
       <c r="AC27" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="29:39">
+    <row r="28" spans="29:40">
       <c r="AC28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="29:39">
+    <row r="29" spans="29:40">
       <c r="AC29" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="30" spans="29:39">
+    <row r="30" spans="29:40">
       <c r="AC30" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="29:39">
+    <row r="31" spans="29:40">
       <c r="AC31" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="29:39">
+    <row r="32" spans="29:40">
       <c r="AC32" t="s">
         <v>348</v>
       </c>
@@ -5732,6 +5735,11 @@
     <row r="287" spans="29:29">
       <c r="AC287" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="288" spans="29:29">
+      <c r="AC288" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -1188,10 +1188,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="703">
   <si>
     <t>alias</t>
   </si>
@@ -823,6 +823,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3679,378 +3682,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -4109,107 +4112,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AH1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AI1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AT1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AX1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BF1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BJ1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AH2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AI2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AT2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AX2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BF2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BJ2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AC3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AI3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AN3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AT3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BF3" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4217,36 +4220,36 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AC4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AH4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AN4" t="s">
         <v>594</v>
       </c>
-      <c r="AN4" t="s">
-        <v>593</v>
-      </c>
       <c r="BF4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BJ4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="5" spans="8:62">
       <c r="AC5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AH5" t="s">
         <v>116</v>
       </c>
       <c r="AM5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AN5" t="s">
         <v>595</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>594</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4254,126 +4257,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AC6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AH6" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AM6" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN6" t="s">
         <v>596</v>
       </c>
-      <c r="AN6" t="s">
-        <v>595</v>
-      </c>
       <c r="BF6" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AC7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AH7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AM7" t="s">
+        <v>598</v>
+      </c>
+      <c r="AN7" t="s">
         <v>597</v>
       </c>
-      <c r="AN7" t="s">
-        <v>596</v>
-      </c>
       <c r="BF7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AC8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM8" t="s">
+        <v>599</v>
+      </c>
+      <c r="AN8" t="s">
         <v>598</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AC9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM9" t="s">
+        <v>600</v>
+      </c>
+      <c r="AN9" t="s">
         <v>599</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AC10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM10" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN10" t="s">
         <v>600</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AC11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AN11" t="s">
         <v>601</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AC12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM12" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AN12" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AC13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AN13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AC14" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM14" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AC15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN15" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AC16" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
@@ -4381,1365 +4384,1365 @@
     </row>
     <row r="17" spans="29:40">
       <c r="AC17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="29:40">
       <c r="AC18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="29:40">
       <c r="AC19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="29:40">
       <c r="AC20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="29:40">
       <c r="AC21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="29:40">
       <c r="AC22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="29:40">
       <c r="AC23" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="29:40">
       <c r="AC24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="29:40">
       <c r="AC25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="29:40">
       <c r="AC26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="29:40">
       <c r="AC27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="29:40">
       <c r="AC28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="29:40">
       <c r="AC29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="29:40">
       <c r="AC30" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="29:40">
       <c r="AC31" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="29:40">
       <c r="AC32" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="29:29">
       <c r="AC33" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="29:29">
       <c r="AC34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="29:29">
       <c r="AC35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="29:29">
       <c r="AC36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="29:29">
       <c r="AC37" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="29:29">
       <c r="AC38" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="29:29">
       <c r="AC39" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="29:29">
       <c r="AC40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="29:29">
       <c r="AC41" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="29:29">
       <c r="AC42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="29:29">
       <c r="AC43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="29:29">
       <c r="AC44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="29:29">
       <c r="AC45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="29:29">
       <c r="AC46" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="29:29">
       <c r="AC47" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="29:29">
       <c r="AC48" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="29:29">
       <c r="AC49" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="29:29">
       <c r="AC50" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="29:29">
       <c r="AC51" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="29:29">
       <c r="AC52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="29:29">
       <c r="AC53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="29:29">
       <c r="AC54" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="29:29">
       <c r="AC55" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56" spans="29:29">
       <c r="AC56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="29:29">
       <c r="AC57" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="58" spans="29:29">
       <c r="AC58" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" spans="29:29">
       <c r="AC59" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="29:29">
       <c r="AC60" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="29:29">
       <c r="AC61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="29:29">
       <c r="AC62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="29:29">
       <c r="AC63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="29:29">
       <c r="AC64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="29:29">
       <c r="AC65" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="29:29">
       <c r="AC66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="29:29">
       <c r="AC67" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="29:29">
       <c r="AC68" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="29:29">
       <c r="AC69" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="29:29">
       <c r="AC70" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="71" spans="29:29">
       <c r="AC71" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="29:29">
       <c r="AC72" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="29:29">
       <c r="AC73" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="29:29">
       <c r="AC74" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="29:29">
       <c r="AC75" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76" spans="29:29">
       <c r="AC76" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="29:29">
       <c r="AC77" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="78" spans="29:29">
       <c r="AC78" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="79" spans="29:29">
       <c r="AC79" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="29:29">
       <c r="AC80" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="29:29">
       <c r="AC81" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="29:29">
       <c r="AC82" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="29:29">
       <c r="AC83" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="29:29">
       <c r="AC84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="29:29">
       <c r="AC85" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="29:29">
       <c r="AC86" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="29:29">
       <c r="AC87" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="88" spans="29:29">
       <c r="AC88" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="89" spans="29:29">
       <c r="AC89" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" spans="29:29">
       <c r="AC90" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="91" spans="29:29">
       <c r="AC91" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="29:29">
       <c r="AC92" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="29:29">
       <c r="AC93" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" spans="29:29">
       <c r="AC94" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="29:29">
       <c r="AC95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="96" spans="29:29">
       <c r="AC96" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="97" spans="29:29">
       <c r="AC97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="29:29">
       <c r="AC98" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="99" spans="29:29">
       <c r="AC99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="29:29">
       <c r="AC100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101" spans="29:29">
       <c r="AC101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="29:29">
       <c r="AC102" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="29:29">
       <c r="AC103" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="104" spans="29:29">
       <c r="AC104" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="105" spans="29:29">
       <c r="AC105" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="29:29">
       <c r="AC106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="29:29">
       <c r="AC107" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="29:29">
       <c r="AC108" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="29:29">
       <c r="AC109" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="110" spans="29:29">
       <c r="AC110" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="29:29">
       <c r="AC111" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="29:29">
       <c r="AC112" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="113" spans="29:29">
       <c r="AC113" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" spans="29:29">
       <c r="AC114" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="29:29">
       <c r="AC115" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="29:29">
       <c r="AC116" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="29:29">
       <c r="AC117" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="29:29">
       <c r="AC118" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="29:29">
       <c r="AC119" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="120" spans="29:29">
       <c r="AC120" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="29:29">
       <c r="AC121" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="29:29">
       <c r="AC122" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="29:29">
       <c r="AC123" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="29:29">
       <c r="AC124" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="29:29">
       <c r="AC125" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="29:29">
       <c r="AC126" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="29:29">
       <c r="AC127" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="29:29">
       <c r="AC128" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="129" spans="29:29">
       <c r="AC129" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="130" spans="29:29">
       <c r="AC130" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="131" spans="29:29">
       <c r="AC131" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="29:29">
       <c r="AC132" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133" spans="29:29">
       <c r="AC133" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" spans="29:29">
       <c r="AC134" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="135" spans="29:29">
       <c r="AC135" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="29:29">
       <c r="AC136" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="29:29">
       <c r="AC137" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="138" spans="29:29">
       <c r="AC138" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="29:29">
       <c r="AC139" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="29:29">
       <c r="AC140" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="29:29">
       <c r="AC141" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="142" spans="29:29">
       <c r="AC142" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="143" spans="29:29">
       <c r="AC143" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" spans="29:29">
       <c r="AC144" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="145" spans="29:29">
       <c r="AC145" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="146" spans="29:29">
       <c r="AC146" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="29:29">
       <c r="AC147" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="29:29">
       <c r="AC148" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="149" spans="29:29">
       <c r="AC149" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="150" spans="29:29">
       <c r="AC150" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="29:29">
       <c r="AC151" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="29:29">
       <c r="AC152" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="153" spans="29:29">
       <c r="AC153" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="154" spans="29:29">
       <c r="AC154" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="155" spans="29:29">
       <c r="AC155" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="29:29">
       <c r="AC156" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="157" spans="29:29">
       <c r="AC157" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="158" spans="29:29">
       <c r="AC158" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="159" spans="29:29">
       <c r="AC159" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="160" spans="29:29">
       <c r="AC160" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="29:29">
       <c r="AC161" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" spans="29:29">
       <c r="AC162" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="29:29">
       <c r="AC163" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="29:29">
       <c r="AC164" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="29:29">
       <c r="AC165" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="29:29">
       <c r="AC166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="167" spans="29:29">
       <c r="AC167" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="29:29">
       <c r="AC168" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="29:29">
       <c r="AC169" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="29:29">
       <c r="AC170" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="29:29">
       <c r="AC171" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="172" spans="29:29">
       <c r="AC172" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="173" spans="29:29">
       <c r="AC173" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174" spans="29:29">
       <c r="AC174" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="29:29">
       <c r="AC175" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="29:29">
       <c r="AC176" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="29:29">
       <c r="AC177" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="29:29">
       <c r="AC178" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="29:29">
       <c r="AC179" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="29:29">
       <c r="AC180" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="29:29">
       <c r="AC181" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="29:29">
       <c r="AC182" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="29:29">
       <c r="AC183" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="184" spans="29:29">
       <c r="AC184" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="185" spans="29:29">
       <c r="AC185" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="29:29">
       <c r="AC186" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="29:29">
       <c r="AC187" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="29:29">
       <c r="AC188" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="189" spans="29:29">
       <c r="AC189" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="190" spans="29:29">
       <c r="AC190" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="191" spans="29:29">
       <c r="AC191" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="192" spans="29:29">
       <c r="AC192" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="193" spans="29:29">
       <c r="AC193" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="194" spans="29:29">
       <c r="AC194" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="195" spans="29:29">
       <c r="AC195" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="196" spans="29:29">
       <c r="AC196" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="197" spans="29:29">
       <c r="AC197" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="198" spans="29:29">
       <c r="AC198" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="199" spans="29:29">
       <c r="AC199" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="200" spans="29:29">
       <c r="AC200" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="201" spans="29:29">
       <c r="AC201" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="202" spans="29:29">
       <c r="AC202" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" spans="29:29">
       <c r="AC203" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204" spans="29:29">
       <c r="AC204" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="205" spans="29:29">
       <c r="AC205" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="206" spans="29:29">
       <c r="AC206" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="29:29">
       <c r="AC207" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="29:29">
       <c r="AC208" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="29:29">
       <c r="AC209" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="210" spans="29:29">
       <c r="AC210" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="211" spans="29:29">
       <c r="AC211" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="29:29">
       <c r="AC212" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="213" spans="29:29">
       <c r="AC213" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="214" spans="29:29">
       <c r="AC214" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="215" spans="29:29">
       <c r="AC215" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="29:29">
       <c r="AC216" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217" spans="29:29">
       <c r="AC217" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218" spans="29:29">
       <c r="AC218" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="219" spans="29:29">
       <c r="AC219" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="220" spans="29:29">
       <c r="AC220" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="221" spans="29:29">
       <c r="AC221" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="222" spans="29:29">
       <c r="AC222" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="223" spans="29:29">
       <c r="AC223" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="224" spans="29:29">
       <c r="AC224" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="225" spans="29:29">
       <c r="AC225" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="29:29">
       <c r="AC226" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="29:29">
       <c r="AC227" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="29:29">
       <c r="AC228" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="29:29">
       <c r="AC229" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="230" spans="29:29">
       <c r="AC230" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="231" spans="29:29">
       <c r="AC231" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="232" spans="29:29">
       <c r="AC232" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="233" spans="29:29">
       <c r="AC233" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="234" spans="29:29">
       <c r="AC234" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="235" spans="29:29">
       <c r="AC235" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="29:29">
       <c r="AC236" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="237" spans="29:29">
       <c r="AC237" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238" spans="29:29">
       <c r="AC238" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="239" spans="29:29">
       <c r="AC239" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="240" spans="29:29">
       <c r="AC240" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="241" spans="29:29">
       <c r="AC241" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="242" spans="29:29">
       <c r="AC242" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="243" spans="29:29">
       <c r="AC243" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="244" spans="29:29">
       <c r="AC244" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="29:29">
       <c r="AC245" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="246" spans="29:29">
       <c r="AC246" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="29:29">
       <c r="AC247" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="29:29">
       <c r="AC248" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="249" spans="29:29">
       <c r="AC249" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="250" spans="29:29">
       <c r="AC250" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="251" spans="29:29">
       <c r="AC251" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="252" spans="29:29">
       <c r="AC252" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="253" spans="29:29">
       <c r="AC253" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="29:29">
       <c r="AC254" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="29:29">
       <c r="AC255" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="256" spans="29:29">
       <c r="AC256" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="29:29">
       <c r="AC257" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="258" spans="29:29">
       <c r="AC258" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="259" spans="29:29">
       <c r="AC259" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="260" spans="29:29">
       <c r="AC260" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="261" spans="29:29">
       <c r="AC261" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="262" spans="29:29">
       <c r="AC262" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="29:29">
       <c r="AC263" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="264" spans="29:29">
       <c r="AC264" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="29:29">
       <c r="AC265" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="266" spans="29:29">
       <c r="AC266" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="267" spans="29:29">
       <c r="AC267" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="268" spans="29:29">
       <c r="AC268" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="269" spans="29:29">
       <c r="AC269" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="270" spans="29:29">
       <c r="AC270" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="29:29">
       <c r="AC271" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="272" spans="29:29">
       <c r="AC272" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="273" spans="29:29">
       <c r="AC273" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="274" spans="29:29">
       <c r="AC274" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="275" spans="29:29">
       <c r="AC275" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="276" spans="29:29">
       <c r="AC276" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="277" spans="29:29">
       <c r="AC277" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="278" spans="29:29">
       <c r="AC278" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="279" spans="29:29">
       <c r="AC279" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="280" spans="29:29">
       <c r="AC280" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="281" spans="29:29">
       <c r="AC281" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="282" spans="29:29">
       <c r="AC282" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="283" spans="29:29">
       <c r="AC283" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="284" spans="29:29">
       <c r="AC284" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="285" spans="29:29">
       <c r="AC285" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="286" spans="29:29">
       <c r="AC286" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="287" spans="29:29">
       <c r="AC287" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="288" spans="29:29">
       <c r="AC288" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -123,7 +123,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -141,7 +141,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AC$1:$AC$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
     <definedName name="hospitalisation">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BJ$1:$BJ$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$AI$1:$AI$3</definedName>
@@ -34,7 +34,7 @@
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AH$1:$AH$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
     <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="704">
   <si>
     <t>alias</t>
   </si>
@@ -999,6 +999,54 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
+    <t>active surveillance in response to outbreak</t>
+  </si>
+  <si>
+    <t>active surveillance not initiated by an outbreak</t>
+  </si>
+  <si>
+    <t>farm sample</t>
+  </si>
+  <si>
+    <t>market sample</t>
+  </si>
+  <si>
+    <t>pet sample</t>
+  </si>
+  <si>
+    <t>zoo sample</t>
+  </si>
+  <si>
+    <t>sample capture status</t>
+  </si>
+  <si>
+    <t>(Recommended) Reason for the sample collection.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1827,6 +1875,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1867,54 +1918,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
-  </si>
-  <si>
-    <t>active surveillance in response to outbreak</t>
-  </si>
-  <si>
-    <t>active surveillance not initiated by an outbreak</t>
-  </si>
-  <si>
-    <t>farm sample</t>
-  </si>
-  <si>
-    <t>market sample</t>
-  </si>
-  <si>
-    <t>pet sample</t>
-  </si>
-  <si>
-    <t>zoo sample</t>
-  </si>
-  <si>
-    <t>sample capture status</t>
-  </si>
-  <si>
-    <t>(Recommended) Reason for the sample collection.</t>
   </si>
   <si>
     <t>dead</t>
@@ -3760,109 +3763,109 @@
         <v>316</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>606</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>608</v>
+        <v>320</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>610</v>
+        <v>322</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>614</v>
+        <v>332</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -3951,109 +3954,109 @@
         <v>317</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>607</v>
+        <v>319</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>611</v>
+        <v>323</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>613</v>
+        <v>325</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>615</v>
+        <v>333</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -4070,11 +4073,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>influenzalikeillnessatthetimeofsamplecollection</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+      <formula1>samplecapturestatus</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
-      <formula1>samplecapturestatus</formula1>
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
       <formula1>hostdiseaseoutcome</formula1>
@@ -4104,7 +4107,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:BJ288"/>
+  <dimension ref="H1:BJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4123,32 +4126,32 @@
       <c r="X1" t="s">
         <v>272</v>
       </c>
-      <c r="AC1" t="s">
-        <v>318</v>
+      <c r="AG1" t="s">
+        <v>326</v>
       </c>
       <c r="AH1" t="s">
-        <v>616</v>
+        <v>334</v>
       </c>
       <c r="AI1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AM1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AN1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AT1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AX1" t="s">
         <v>272</v>
       </c>
       <c r="BF1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BJ1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="8:62">
@@ -4164,1585 +4167,1590 @@
       <c r="X2" t="s">
         <v>273</v>
       </c>
-      <c r="AC2" t="s">
-        <v>319</v>
+      <c r="AG2" t="s">
+        <v>327</v>
       </c>
       <c r="AH2" t="s">
-        <v>617</v>
+        <v>335</v>
       </c>
       <c r="AI2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AT2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AX2" t="s">
         <v>273</v>
       </c>
       <c r="BF2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BJ2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="8:62">
-      <c r="AC3" t="s">
-        <v>320</v>
+      <c r="AG3" t="s">
+        <v>328</v>
       </c>
       <c r="AH3" t="s">
-        <v>618</v>
+        <v>336</v>
       </c>
       <c r="AI3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM3" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="AN3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AT3" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="BF3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="8:62">
-      <c r="AC4" t="s">
-        <v>321</v>
+      <c r="AG4" t="s">
+        <v>329</v>
       </c>
       <c r="AH4" t="s">
-        <v>619</v>
+        <v>337</v>
       </c>
       <c r="AM4" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="AN4" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="BF4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BJ4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="8:62">
-      <c r="AC5" t="s">
-        <v>322</v>
+      <c r="AG5" t="s">
+        <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="AM5" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="AN5" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="8:62">
-      <c r="AC6" t="s">
-        <v>323</v>
+      <c r="AG6" t="s">
+        <v>330</v>
       </c>
       <c r="AH6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>613</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7" spans="8:62">
+      <c r="AG7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>614</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="8:62">
+      <c r="AH8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="8:62">
+      <c r="AH9" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>617</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="8:62">
+      <c r="AH10" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>618</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="11" spans="8:62">
+      <c r="AH11" t="s">
+        <v>344</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>619</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="12" spans="8:62">
+      <c r="AH12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM12" t="s">
         <v>620</v>
       </c>
-      <c r="AM6" t="s">
-        <v>597</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>596</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="8:62">
-      <c r="AC7" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AN12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="8:62">
+      <c r="AH13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM13" t="s">
         <v>621</v>
       </c>
-      <c r="AM7" t="s">
-        <v>598</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>597</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="8" spans="8:62">
-      <c r="AC8" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>599</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="9" spans="8:62">
-      <c r="AC9" t="s">
-        <v>326</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>600</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="8:62">
-      <c r="AC10" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>601</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="11" spans="8:62">
-      <c r="AC11" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>602</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="12" spans="8:62">
-      <c r="AC12" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="13" spans="8:62">
-      <c r="AC13" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>604</v>
-      </c>
       <c r="AN13" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="8:62">
-      <c r="AC14" t="s">
-        <v>331</v>
+      <c r="AH14" t="s">
+        <v>347</v>
       </c>
       <c r="AM14" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="AN14" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="8:62">
-      <c r="AC15" t="s">
-        <v>332</v>
+      <c r="AH15" t="s">
+        <v>348</v>
       </c>
       <c r="AN15" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
     </row>
     <row r="16" spans="8:62">
-      <c r="AC16" t="s">
-        <v>333</v>
+      <c r="AH16" t="s">
+        <v>349</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="29:40">
-      <c r="AC17" t="s">
-        <v>334</v>
+    <row r="17" spans="34:40">
+      <c r="AH17" t="s">
+        <v>350</v>
       </c>
       <c r="AN17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="18" spans="34:40">
+      <c r="AH18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="34:40">
+      <c r="AH19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="34:40">
+      <c r="AH20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="34:40">
+      <c r="AH21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="34:40">
+      <c r="AH22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="34:40">
+      <c r="AH23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" spans="34:40">
+      <c r="AH24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="34:40">
+      <c r="AH25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="34:40">
+      <c r="AH26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="34:40">
+      <c r="AH27" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="34:40">
+      <c r="AH28" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="34:40">
+      <c r="AH29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="34:40">
+      <c r="AH30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="34:40">
+      <c r="AH31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="34:40">
+      <c r="AH32" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="34:34">
+      <c r="AH33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="34:34">
+      <c r="AH34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="34:34">
+      <c r="AH35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="34:34">
+      <c r="AH36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="34:34">
+      <c r="AH37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="34:34">
+      <c r="AH38" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="39" spans="34:34">
+      <c r="AH39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="34:34">
+      <c r="AH40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="34:34">
+      <c r="AH41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="34:34">
+      <c r="AH42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" spans="34:34">
+      <c r="AH43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="34:34">
+      <c r="AH44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" spans="34:34">
+      <c r="AH45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" spans="34:34">
+      <c r="AH46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="34:34">
+      <c r="AH47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="34:34">
+      <c r="AH48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49" spans="34:34">
+      <c r="AH49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="34:34">
+      <c r="AH50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="34:34">
+      <c r="AH51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="34:34">
+      <c r="AH52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="34:34">
+      <c r="AH53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="54" spans="34:34">
+      <c r="AH54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="34:34">
+      <c r="AH55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="34:34">
+      <c r="AH56" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="34:34">
+      <c r="AH57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="34:34">
+      <c r="AH58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="34:34">
+      <c r="AH59" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="34:34">
+      <c r="AH60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="34:34">
+      <c r="AH61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="34:34">
+      <c r="AH62" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="34:34">
+      <c r="AH63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="34:34">
+      <c r="AH64" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="34:34">
+      <c r="AH65" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="34:34">
+      <c r="AH66" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="67" spans="34:34">
+      <c r="AH67" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="68" spans="34:34">
+      <c r="AH68" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="69" spans="34:34">
+      <c r="AH69" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="70" spans="34:34">
+      <c r="AH70" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="34:34">
+      <c r="AH71" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72" spans="34:34">
+      <c r="AH72" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="73" spans="34:34">
+      <c r="AH73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="34:34">
+      <c r="AH74" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="75" spans="34:34">
+      <c r="AH75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="34:34">
+      <c r="AH76" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="34:34">
+      <c r="AH77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="34:34">
+      <c r="AH78" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="79" spans="34:34">
+      <c r="AH79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="34:34">
+      <c r="AH80" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="81" spans="34:34">
+      <c r="AH81" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="82" spans="34:34">
+      <c r="AH82" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="83" spans="34:34">
+      <c r="AH83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="34:34">
+      <c r="AH84" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="85" spans="34:34">
+      <c r="AH85" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="86" spans="34:34">
+      <c r="AH86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="34:34">
+      <c r="AH87" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="34:34">
+      <c r="AH88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="34:34">
+      <c r="AH89" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="34:34">
+      <c r="AH90" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="91" spans="34:34">
+      <c r="AH91" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="34:34">
+      <c r="AH92" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="93" spans="34:34">
+      <c r="AH93" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="94" spans="34:34">
+      <c r="AH94" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="34:34">
+      <c r="AH95" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="34:34">
+      <c r="AH96" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="34:34">
+      <c r="AH97" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="98" spans="34:34">
+      <c r="AH98" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="34:34">
+      <c r="AH99" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="100" spans="34:34">
+      <c r="AH100" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" spans="34:34">
+      <c r="AH101" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="102" spans="34:34">
+      <c r="AH102" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="103" spans="34:34">
+      <c r="AH103" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104" spans="34:34">
+      <c r="AH104" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="34:34">
+      <c r="AH105" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="34:34">
+      <c r="AH106" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="107" spans="34:34">
+      <c r="AH107" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="34:34">
+      <c r="AH108" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="34:34">
+      <c r="AH109" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="110" spans="34:34">
+      <c r="AH110" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="111" spans="34:34">
+      <c r="AH111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="34:34">
+      <c r="AH112" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="34:34">
+      <c r="AH113" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="114" spans="34:34">
+      <c r="AH114" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="115" spans="34:34">
+      <c r="AH115" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="34:34">
+      <c r="AH116" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="34:34">
+      <c r="AH117" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="118" spans="34:34">
+      <c r="AH118" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="34:34">
+      <c r="AH119" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="120" spans="34:34">
+      <c r="AH120" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121" spans="34:34">
+      <c r="AH121" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="34:34">
+      <c r="AH122" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="34:34">
+      <c r="AH123" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="124" spans="34:34">
+      <c r="AH124" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="34:34">
+      <c r="AH125" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="126" spans="34:34">
+      <c r="AH126" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="127" spans="34:34">
+      <c r="AH127" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="128" spans="34:34">
+      <c r="AH128" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="129" spans="34:34">
+      <c r="AH129" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="34:34">
+      <c r="AH130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="34:34">
+      <c r="AH131" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="132" spans="34:34">
+      <c r="AH132" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="133" spans="34:34">
+      <c r="AH133" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134" spans="34:34">
+      <c r="AH134" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="135" spans="34:34">
+      <c r="AH135" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="136" spans="34:34">
+      <c r="AH136" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="137" spans="34:34">
+      <c r="AH137" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="138" spans="34:34">
+      <c r="AH138" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="139" spans="34:34">
+      <c r="AH139" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="140" spans="34:34">
+      <c r="AH140" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="141" spans="34:34">
+      <c r="AH141" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="142" spans="34:34">
+      <c r="AH142" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="143" spans="34:34">
+      <c r="AH143" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144" spans="34:34">
+      <c r="AH144" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="145" spans="34:34">
+      <c r="AH145" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="146" spans="34:34">
+      <c r="AH146" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="34:34">
+      <c r="AH147" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="148" spans="34:34">
+      <c r="AH148" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="149" spans="34:34">
+      <c r="AH149" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="150" spans="34:34">
+      <c r="AH150" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="151" spans="34:34">
+      <c r="AH151" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" spans="34:34">
+      <c r="AH152" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="153" spans="34:34">
+      <c r="AH153" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154" spans="34:34">
+      <c r="AH154" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="34:34">
+      <c r="AH155" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="156" spans="34:34">
+      <c r="AH156" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="157" spans="34:34">
+      <c r="AH157" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="158" spans="34:34">
+      <c r="AH158" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="159" spans="34:34">
+      <c r="AH159" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="160" spans="34:34">
+      <c r="AH160" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161" spans="34:34">
+      <c r="AH161" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="162" spans="34:34">
+      <c r="AH162" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="163" spans="34:34">
+      <c r="AH163" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="164" spans="34:34">
+      <c r="AH164" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="34:34">
+      <c r="AH165" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="166" spans="34:34">
+      <c r="AH166" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="167" spans="34:34">
+      <c r="AH167" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="34:34">
+      <c r="AH168" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="169" spans="34:34">
+      <c r="AH169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="34:34">
+      <c r="AH170" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="171" spans="34:34">
+      <c r="AH171" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="172" spans="34:34">
+      <c r="AH172" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="173" spans="34:34">
+      <c r="AH173" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="34:34">
+      <c r="AH174" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="175" spans="34:34">
+      <c r="AH175" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="176" spans="34:34">
+      <c r="AH176" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="177" spans="34:34">
+      <c r="AH177" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="178" spans="34:34">
+      <c r="AH178" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="179" spans="34:34">
+      <c r="AH179" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180" spans="34:34">
+      <c r="AH180" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="181" spans="34:34">
+      <c r="AH181" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="182" spans="34:34">
+      <c r="AH182" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183" spans="34:34">
+      <c r="AH183" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="184" spans="34:34">
+      <c r="AH184" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="185" spans="34:34">
+      <c r="AH185" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="186" spans="34:34">
+      <c r="AH186" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="187" spans="34:34">
+      <c r="AH187" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="188" spans="34:34">
+      <c r="AH188" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="34:34">
+      <c r="AH189" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="34:34">
+      <c r="AH190" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191" spans="34:34">
+      <c r="AH191" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="192" spans="34:34">
+      <c r="AH192" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="193" spans="34:34">
+      <c r="AH193" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="194" spans="34:34">
+      <c r="AH194" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="195" spans="34:34">
+      <c r="AH195" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="196" spans="34:34">
+      <c r="AH196" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197" spans="34:34">
+      <c r="AH197" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="198" spans="34:34">
+      <c r="AH198" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="199" spans="34:34">
+      <c r="AH199" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="34:34">
+      <c r="AH200" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="201" spans="34:34">
+      <c r="AH201" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202" spans="34:34">
+      <c r="AH202" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="203" spans="34:34">
+      <c r="AH203" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="204" spans="34:34">
+      <c r="AH204" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="205" spans="34:34">
+      <c r="AH205" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="206" spans="34:34">
+      <c r="AH206" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" spans="34:34">
+      <c r="AH207" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="208" spans="34:34">
+      <c r="AH208" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="209" spans="34:34">
+      <c r="AH209" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="210" spans="34:34">
+      <c r="AH210" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="211" spans="34:34">
+      <c r="AH211" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="212" spans="34:34">
+      <c r="AH212" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="213" spans="34:34">
+      <c r="AH213" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="214" spans="34:34">
+      <c r="AH214" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="215" spans="34:34">
+      <c r="AH215" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="216" spans="34:34">
+      <c r="AH216" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="217" spans="34:34">
+      <c r="AH217" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="218" spans="34:34">
+      <c r="AH218" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="219" spans="34:34">
+      <c r="AH219" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="220" spans="34:34">
+      <c r="AH220" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="221" spans="34:34">
+      <c r="AH221" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="222" spans="34:34">
+      <c r="AH222" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="223" spans="34:34">
+      <c r="AH223" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="224" spans="34:34">
+      <c r="AH224" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="225" spans="34:34">
+      <c r="AH225" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="226" spans="34:34">
+      <c r="AH226" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="227" spans="34:34">
+      <c r="AH227" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="228" spans="34:34">
+      <c r="AH228" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="229" spans="34:34">
+      <c r="AH229" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="230" spans="34:34">
+      <c r="AH230" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="231" spans="34:34">
+      <c r="AH231" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="34:34">
+      <c r="AH232" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="233" spans="34:34">
+      <c r="AH233" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="234" spans="34:34">
+      <c r="AH234" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="235" spans="34:34">
+      <c r="AH235" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="236" spans="34:34">
+      <c r="AH236" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="237" spans="34:34">
+      <c r="AH237" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="238" spans="34:34">
+      <c r="AH238" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="239" spans="34:34">
+      <c r="AH239" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="240" spans="34:34">
+      <c r="AH240" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="241" spans="34:34">
+      <c r="AH241" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="242" spans="34:34">
+      <c r="AH242" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="243" spans="34:34">
+      <c r="AH243" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="244" spans="34:34">
+      <c r="AH244" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="245" spans="34:34">
+      <c r="AH245" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="246" spans="34:34">
+      <c r="AH246" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="247" spans="34:34">
+      <c r="AH247" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="248" spans="34:34">
+      <c r="AH248" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="249" spans="34:34">
+      <c r="AH249" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="250" spans="34:34">
+      <c r="AH250" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="251" spans="34:34">
+      <c r="AH251" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="252" spans="34:34">
+      <c r="AH252" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="253" spans="34:34">
+      <c r="AH253" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="254" spans="34:34">
+      <c r="AH254" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="255" spans="34:34">
+      <c r="AH255" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="256" spans="34:34">
+      <c r="AH256" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="257" spans="34:34">
+      <c r="AH257" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="258" spans="34:34">
+      <c r="AH258" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="259" spans="34:34">
+      <c r="AH259" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="260" spans="34:34">
+      <c r="AH260" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="261" spans="34:34">
+      <c r="AH261" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="262" spans="34:34">
+      <c r="AH262" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263" spans="34:34">
+      <c r="AH263" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="264" spans="34:34">
+      <c r="AH264" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="265" spans="34:34">
+      <c r="AH265" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="266" spans="34:34">
+      <c r="AH266" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="267" spans="34:34">
+      <c r="AH267" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="268" spans="34:34">
+      <c r="AH268" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="269" spans="34:34">
+      <c r="AH269" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="270" spans="34:34">
+      <c r="AH270" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="271" spans="34:34">
+      <c r="AH271" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="272" spans="34:34">
+      <c r="AH272" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="18" spans="29:40">
-      <c r="AC18" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="29:40">
-      <c r="AC19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="29:40">
-      <c r="AC20" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="29:40">
-      <c r="AC21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="29:40">
-      <c r="AC22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="29:40">
-      <c r="AC23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="29:40">
-      <c r="AC24" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="25" spans="29:40">
-      <c r="AC25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="26" spans="29:40">
-      <c r="AC26" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="27" spans="29:40">
-      <c r="AC27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="29:40">
-      <c r="AC28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="29:40">
-      <c r="AC29" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" spans="29:40">
-      <c r="AC30" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="29:40">
-      <c r="AC31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="29:40">
-      <c r="AC32" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="29:29">
-      <c r="AC33" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="29:29">
-      <c r="AC34" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="35" spans="29:29">
-      <c r="AC35" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="36" spans="29:29">
-      <c r="AC36" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="29:29">
-      <c r="AC37" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="29:29">
-      <c r="AC38" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="39" spans="29:29">
-      <c r="AC39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="29:29">
-      <c r="AC40" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="41" spans="29:29">
-      <c r="AC41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="29:29">
-      <c r="AC42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="29:29">
-      <c r="AC43" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="29:29">
-      <c r="AC44" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="29:29">
-      <c r="AC45" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="46" spans="29:29">
-      <c r="AC46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="29:29">
-      <c r="AC47" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="29:29">
-      <c r="AC48" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="29:29">
-      <c r="AC49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="29:29">
-      <c r="AC50" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="51" spans="29:29">
-      <c r="AC51" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="52" spans="29:29">
-      <c r="AC52" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="53" spans="29:29">
-      <c r="AC53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="29:29">
-      <c r="AC54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="29:29">
-      <c r="AC55" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="56" spans="29:29">
-      <c r="AC56" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="57" spans="29:29">
-      <c r="AC57" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="58" spans="29:29">
-      <c r="AC58" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="59" spans="29:29">
-      <c r="AC59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="60" spans="29:29">
-      <c r="AC60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="29:29">
-      <c r="AC61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="29:29">
-      <c r="AC62" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="63" spans="29:29">
-      <c r="AC63" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="64" spans="29:29">
-      <c r="AC64" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="65" spans="29:29">
-      <c r="AC65" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="66" spans="29:29">
-      <c r="AC66" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="67" spans="29:29">
-      <c r="AC67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="29:29">
-      <c r="AC68" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" spans="29:29">
-      <c r="AC69" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="29:29">
-      <c r="AC70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="29:29">
-      <c r="AC71" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="72" spans="29:29">
-      <c r="AC72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="29:29">
-      <c r="AC73" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="29:29">
-      <c r="AC74" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="75" spans="29:29">
-      <c r="AC75" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="76" spans="29:29">
-      <c r="AC76" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="77" spans="29:29">
-      <c r="AC77" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="78" spans="29:29">
-      <c r="AC78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="29:29">
-      <c r="AC79" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="80" spans="29:29">
-      <c r="AC80" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="29:29">
-      <c r="AC81" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="82" spans="29:29">
-      <c r="AC82" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="29:29">
-      <c r="AC83" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="29:29">
-      <c r="AC84" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="29:29">
-      <c r="AC85" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="86" spans="29:29">
-      <c r="AC86" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="87" spans="29:29">
-      <c r="AC87" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="88" spans="29:29">
-      <c r="AC88" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="89" spans="29:29">
-      <c r="AC89" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="90" spans="29:29">
-      <c r="AC90" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="91" spans="29:29">
-      <c r="AC91" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="92" spans="29:29">
-      <c r="AC92" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="93" spans="29:29">
-      <c r="AC93" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="94" spans="29:29">
-      <c r="AC94" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="95" spans="29:29">
-      <c r="AC95" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="29:29">
-      <c r="AC96" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="97" spans="29:29">
-      <c r="AC97" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="98" spans="29:29">
-      <c r="AC98" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="99" spans="29:29">
-      <c r="AC99" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="100" spans="29:29">
-      <c r="AC100" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="101" spans="29:29">
-      <c r="AC101" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="102" spans="29:29">
-      <c r="AC102" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="103" spans="29:29">
-      <c r="AC103" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="104" spans="29:29">
-      <c r="AC104" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="105" spans="29:29">
-      <c r="AC105" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="106" spans="29:29">
-      <c r="AC106" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="107" spans="29:29">
-      <c r="AC107" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="108" spans="29:29">
-      <c r="AC108" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="109" spans="29:29">
-      <c r="AC109" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="110" spans="29:29">
-      <c r="AC110" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="29:29">
-      <c r="AC111" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="112" spans="29:29">
-      <c r="AC112" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="113" spans="29:29">
-      <c r="AC113" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="114" spans="29:29">
-      <c r="AC114" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="115" spans="29:29">
-      <c r="AC115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="29:29">
-      <c r="AC116" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="117" spans="29:29">
-      <c r="AC117" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="118" spans="29:29">
-      <c r="AC118" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="119" spans="29:29">
-      <c r="AC119" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="120" spans="29:29">
-      <c r="AC120" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="121" spans="29:29">
-      <c r="AC121" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="122" spans="29:29">
-      <c r="AC122" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="123" spans="29:29">
-      <c r="AC123" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="124" spans="29:29">
-      <c r="AC124" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="125" spans="29:29">
-      <c r="AC125" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="126" spans="29:29">
-      <c r="AC126" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="29:29">
-      <c r="AC127" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="128" spans="29:29">
-      <c r="AC128" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="129" spans="29:29">
-      <c r="AC129" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="130" spans="29:29">
-      <c r="AC130" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="131" spans="29:29">
-      <c r="AC131" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="132" spans="29:29">
-      <c r="AC132" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="133" spans="29:29">
-      <c r="AC133" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="134" spans="29:29">
-      <c r="AC134" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="135" spans="29:29">
-      <c r="AC135" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="136" spans="29:29">
-      <c r="AC136" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="137" spans="29:29">
-      <c r="AC137" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="138" spans="29:29">
-      <c r="AC138" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="139" spans="29:29">
-      <c r="AC139" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="140" spans="29:29">
-      <c r="AC140" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="141" spans="29:29">
-      <c r="AC141" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="142" spans="29:29">
-      <c r="AC142" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="143" spans="29:29">
-      <c r="AC143" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="144" spans="29:29">
-      <c r="AC144" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="145" spans="29:29">
-      <c r="AC145" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="29:29">
-      <c r="AC146" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="147" spans="29:29">
-      <c r="AC147" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="148" spans="29:29">
-      <c r="AC148" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="149" spans="29:29">
-      <c r="AC149" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="150" spans="29:29">
-      <c r="AC150" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="151" spans="29:29">
-      <c r="AC151" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="152" spans="29:29">
-      <c r="AC152" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="153" spans="29:29">
-      <c r="AC153" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="29:29">
-      <c r="AC154" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="155" spans="29:29">
-      <c r="AC155" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="156" spans="29:29">
-      <c r="AC156" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="157" spans="29:29">
-      <c r="AC157" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="158" spans="29:29">
-      <c r="AC158" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="159" spans="29:29">
-      <c r="AC159" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="160" spans="29:29">
-      <c r="AC160" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="161" spans="29:29">
-      <c r="AC161" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="29:29">
-      <c r="AC162" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="163" spans="29:29">
-      <c r="AC163" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="164" spans="29:29">
-      <c r="AC164" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="165" spans="29:29">
-      <c r="AC165" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="166" spans="29:29">
-      <c r="AC166" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="167" spans="29:29">
-      <c r="AC167" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="168" spans="29:29">
-      <c r="AC168" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="169" spans="29:29">
-      <c r="AC169" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="170" spans="29:29">
-      <c r="AC170" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="171" spans="29:29">
-      <c r="AC171" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="172" spans="29:29">
-      <c r="AC172" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="173" spans="29:29">
-      <c r="AC173" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="174" spans="29:29">
-      <c r="AC174" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="175" spans="29:29">
-      <c r="AC175" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="176" spans="29:29">
-      <c r="AC176" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="177" spans="29:29">
-      <c r="AC177" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="178" spans="29:29">
-      <c r="AC178" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="179" spans="29:29">
-      <c r="AC179" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="180" spans="29:29">
-      <c r="AC180" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="181" spans="29:29">
-      <c r="AC181" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="182" spans="29:29">
-      <c r="AC182" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="183" spans="29:29">
-      <c r="AC183" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="184" spans="29:29">
-      <c r="AC184" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="185" spans="29:29">
-      <c r="AC185" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="186" spans="29:29">
-      <c r="AC186" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="187" spans="29:29">
-      <c r="AC187" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="188" spans="29:29">
-      <c r="AC188" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="189" spans="29:29">
-      <c r="AC189" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="190" spans="29:29">
-      <c r="AC190" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="191" spans="29:29">
-      <c r="AC191" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="192" spans="29:29">
-      <c r="AC192" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="193" spans="29:29">
-      <c r="AC193" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="194" spans="29:29">
-      <c r="AC194" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="195" spans="29:29">
-      <c r="AC195" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="196" spans="29:29">
-      <c r="AC196" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="197" spans="29:29">
-      <c r="AC197" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="198" spans="29:29">
-      <c r="AC198" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="199" spans="29:29">
-      <c r="AC199" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="200" spans="29:29">
-      <c r="AC200" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="201" spans="29:29">
-      <c r="AC201" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="202" spans="29:29">
-      <c r="AC202" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="203" spans="29:29">
-      <c r="AC203" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="204" spans="29:29">
-      <c r="AC204" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="205" spans="29:29">
-      <c r="AC205" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="206" spans="29:29">
-      <c r="AC206" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="207" spans="29:29">
-      <c r="AC207" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="208" spans="29:29">
-      <c r="AC208" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="209" spans="29:29">
-      <c r="AC209" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="210" spans="29:29">
-      <c r="AC210" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="211" spans="29:29">
-      <c r="AC211" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="212" spans="29:29">
-      <c r="AC212" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="213" spans="29:29">
-      <c r="AC213" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="214" spans="29:29">
-      <c r="AC214" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="215" spans="29:29">
-      <c r="AC215" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="216" spans="29:29">
-      <c r="AC216" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="217" spans="29:29">
-      <c r="AC217" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="218" spans="29:29">
-      <c r="AC218" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="219" spans="29:29">
-      <c r="AC219" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="220" spans="29:29">
-      <c r="AC220" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="221" spans="29:29">
-      <c r="AC221" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="222" spans="29:29">
-      <c r="AC222" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="223" spans="29:29">
-      <c r="AC223" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="224" spans="29:29">
-      <c r="AC224" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="225" spans="29:29">
-      <c r="AC225" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="226" spans="29:29">
-      <c r="AC226" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="227" spans="29:29">
-      <c r="AC227" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="228" spans="29:29">
-      <c r="AC228" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="229" spans="29:29">
-      <c r="AC229" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="230" spans="29:29">
-      <c r="AC230" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="231" spans="29:29">
-      <c r="AC231" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="232" spans="29:29">
-      <c r="AC232" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="233" spans="29:29">
-      <c r="AC233" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="234" spans="29:29">
-      <c r="AC234" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="235" spans="29:29">
-      <c r="AC235" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="236" spans="29:29">
-      <c r="AC236" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="237" spans="29:29">
-      <c r="AC237" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="238" spans="29:29">
-      <c r="AC238" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="239" spans="29:29">
-      <c r="AC239" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="240" spans="29:29">
-      <c r="AC240" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="241" spans="29:29">
-      <c r="AC241" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="242" spans="29:29">
-      <c r="AC242" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="243" spans="29:29">
-      <c r="AC243" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="244" spans="29:29">
-      <c r="AC244" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="245" spans="29:29">
-      <c r="AC245" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="246" spans="29:29">
-      <c r="AC246" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="247" spans="29:29">
-      <c r="AC247" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="248" spans="29:29">
-      <c r="AC248" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="249" spans="29:29">
-      <c r="AC249" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="250" spans="29:29">
-      <c r="AC250" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="251" spans="29:29">
-      <c r="AC251" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="252" spans="29:29">
-      <c r="AC252" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="253" spans="29:29">
-      <c r="AC253" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="254" spans="29:29">
-      <c r="AC254" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="255" spans="29:29">
-      <c r="AC255" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="256" spans="29:29">
-      <c r="AC256" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="257" spans="29:29">
-      <c r="AC257" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="258" spans="29:29">
-      <c r="AC258" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="259" spans="29:29">
-      <c r="AC259" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="260" spans="29:29">
-      <c r="AC260" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="261" spans="29:29">
-      <c r="AC261" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="262" spans="29:29">
-      <c r="AC262" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="263" spans="29:29">
-      <c r="AC263" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="264" spans="29:29">
-      <c r="AC264" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="265" spans="29:29">
-      <c r="AC265" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="266" spans="29:29">
-      <c r="AC266" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="267" spans="29:29">
-      <c r="AC267" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="268" spans="29:29">
-      <c r="AC268" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="269" spans="29:29">
-      <c r="AC269" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="270" spans="29:29">
-      <c r="AC270" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="271" spans="29:29">
-      <c r="AC271" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="272" spans="29:29">
-      <c r="AC272" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="273" spans="29:29">
-      <c r="AC273" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="274" spans="29:29">
-      <c r="AC274" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="275" spans="29:29">
-      <c r="AC275" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="276" spans="29:29">
-      <c r="AC276" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="277" spans="29:29">
-      <c r="AC277" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="278" spans="29:29">
-      <c r="AC278" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="279" spans="29:29">
-      <c r="AC279" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="280" spans="29:29">
-      <c r="AC280" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="281" spans="29:29">
-      <c r="AC281" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="282" spans="29:29">
-      <c r="AC282" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="283" spans="29:29">
-      <c r="AC283" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="284" spans="29:29">
-      <c r="AC284" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="285" spans="29:29">
-      <c r="AC285" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="286" spans="29:29">
-      <c r="AC286" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="287" spans="29:29">
-      <c r="AC287" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="288" spans="29:29">
-      <c r="AC288" t="s">
-        <v>605</v>
+    <row r="273" spans="34:34">
+      <c r="AH273" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="274" spans="34:34">
+      <c r="AH274" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="275" spans="34:34">
+      <c r="AH275" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="276" spans="34:34">
+      <c r="AH276" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="277" spans="34:34">
+      <c r="AH277" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="278" spans="34:34">
+      <c r="AH278" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="279" spans="34:34">
+      <c r="AH279" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="280" spans="34:34">
+      <c r="AH280" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="281" spans="34:34">
+      <c r="AH281" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="282" spans="34:34">
+      <c r="AH282" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="283" spans="34:34">
+      <c r="AH283" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="284" spans="34:34">
+      <c r="AH284" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="285" spans="34:34">
+      <c r="AH285" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="286" spans="34:34">
+      <c r="AH286" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="287" spans="34:34">
+      <c r="AH287" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="288" spans="34:34">
+      <c r="AH288" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="289" spans="34:34">
+      <c r="AH289" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -28,7 +28,7 @@
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="705">
   <si>
     <t>alias</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2693,7 +2696,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2737,7 +2740,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3476,6 +3479,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3500,27 +3508,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3543,122 +3551,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3685,378 +3693,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -4115,107 +4123,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AM1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AN1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AT1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AX1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BF1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BJ1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AT2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AX2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BF2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BJ2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AG3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AT3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="BF3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4223,22 +4231,22 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AG4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AN4" t="s">
         <v>612</v>
       </c>
-      <c r="AN4" t="s">
-        <v>611</v>
-      </c>
       <c r="BF4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BJ4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4246,13 +4254,13 @@
         <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM5" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN5" t="s">
         <v>613</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>612</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4260,126 +4268,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AG6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM6" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN6" t="s">
         <v>614</v>
       </c>
-      <c r="AN6" t="s">
-        <v>613</v>
-      </c>
       <c r="BF6" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AG7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM7" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN7" t="s">
         <v>615</v>
       </c>
-      <c r="AN7" t="s">
-        <v>614</v>
-      </c>
       <c r="BF7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AH8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM8" t="s">
+        <v>617</v>
+      </c>
+      <c r="AN8" t="s">
         <v>616</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AH9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM9" t="s">
+        <v>618</v>
+      </c>
+      <c r="AN9" t="s">
         <v>617</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AH10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM10" t="s">
+        <v>619</v>
+      </c>
+      <c r="AN10" t="s">
         <v>618</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AH11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN11" t="s">
         <v>619</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AH12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN12" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AH13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AH14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN14" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AH15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN15" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AH16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
@@ -4387,1370 +4395,1370 @@
     </row>
     <row r="17" spans="34:40">
       <c r="AH17" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="34:40">
       <c r="AH18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="34:40">
       <c r="AH19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="34:40">
       <c r="AH20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="34:40">
       <c r="AH21" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="34:40">
       <c r="AH22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="34:40">
       <c r="AH23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="34:40">
       <c r="AH24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="34:40">
       <c r="AH25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="34:40">
       <c r="AH26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="34:40">
       <c r="AH27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="34:40">
       <c r="AH28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="34:40">
       <c r="AH29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="34:40">
       <c r="AH30" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="34:40">
       <c r="AH31" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="34:40">
       <c r="AH32" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -28,7 +28,7 @@
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="706">
   <si>
     <t>alias</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2696,7 +2699,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2740,7 +2743,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2767,7 +2770,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3484,6 +3487,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3508,27 +3516,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3551,122 +3559,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3693,378 +3701,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -4123,107 +4131,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AH1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AI1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AM1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AN1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AT1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AX1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BF1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BJ1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AT2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AX2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BF2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BJ2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AG3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AT3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="BF3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4231,22 +4239,22 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AG4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AN4" t="s">
         <v>613</v>
       </c>
-      <c r="AN4" t="s">
-        <v>612</v>
-      </c>
       <c r="BF4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BJ4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4254,13 +4262,13 @@
         <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM5" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN5" t="s">
         <v>614</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>613</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4268,126 +4276,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AG6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM6" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN6" t="s">
         <v>615</v>
       </c>
-      <c r="AN6" t="s">
-        <v>614</v>
-      </c>
       <c r="BF6" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AG7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM7" t="s">
+        <v>617</v>
+      </c>
+      <c r="AN7" t="s">
         <v>616</v>
       </c>
-      <c r="AN7" t="s">
-        <v>615</v>
-      </c>
       <c r="BF7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AH8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM8" t="s">
+        <v>618</v>
+      </c>
+      <c r="AN8" t="s">
         <v>617</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AH9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM9" t="s">
+        <v>619</v>
+      </c>
+      <c r="AN9" t="s">
         <v>618</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AH10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM10" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN10" t="s">
         <v>619</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AH11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM11" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN11" t="s">
         <v>620</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AH12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AN12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AH13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AH14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN14" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AH15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN15" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AH16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
@@ -4395,1370 +4403,1370 @@
     </row>
     <row r="17" spans="34:40">
       <c r="AH17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN17" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="34:40">
       <c r="AH18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="34:40">
       <c r="AH19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="34:40">
       <c r="AH20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="34:40">
       <c r="AH21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="34:40">
       <c r="AH22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="34:40">
       <c r="AH23" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="24" spans="34:40">
       <c r="AH24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="34:40">
       <c r="AH25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="34:40">
       <c r="AH26" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="34:40">
       <c r="AH27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="34:40">
       <c r="AH28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="34:40">
       <c r="AH29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="34:40">
       <c r="AH30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="34:40">
       <c r="AH31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="34:40">
       <c r="AH32" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -28,7 +28,7 @@
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="707">
   <si>
     <t>alias</t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2699,7 +2702,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2743,7 +2746,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2773,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3492,6 +3495,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3516,27 +3524,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3559,122 +3567,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3701,378 +3709,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -4131,107 +4139,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AH1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AI1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AN1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AT1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AX1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BF1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BJ1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AT2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BF2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BJ2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AG3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AN3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AT3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="BF3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4239,22 +4247,22 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AG4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN4" t="s">
         <v>614</v>
       </c>
-      <c r="AN4" t="s">
-        <v>613</v>
-      </c>
       <c r="BF4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BJ4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4262,13 +4270,13 @@
         <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM5" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN5" t="s">
         <v>615</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>614</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4276,126 +4284,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AG6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM6" t="s">
+        <v>617</v>
+      </c>
+      <c r="AN6" t="s">
         <v>616</v>
       </c>
-      <c r="AN6" t="s">
-        <v>615</v>
-      </c>
       <c r="BF6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AG7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM7" t="s">
+        <v>618</v>
+      </c>
+      <c r="AN7" t="s">
         <v>617</v>
       </c>
-      <c r="AN7" t="s">
-        <v>616</v>
-      </c>
       <c r="BF7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AH8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM8" t="s">
+        <v>619</v>
+      </c>
+      <c r="AN8" t="s">
         <v>618</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AH9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM9" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN9" t="s">
         <v>619</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AH10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM10" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN10" t="s">
         <v>620</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AH11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM11" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN11" t="s">
         <v>621</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AH12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AN12" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AH13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AH14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM14" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN14" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AH15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN15" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AH16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
@@ -4403,1370 +4411,1370 @@
     </row>
     <row r="17" spans="34:40">
       <c r="AH17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN17" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="34:40">
       <c r="AH18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="34:40">
       <c r="AH19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="34:40">
       <c r="AH20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="34:40">
       <c r="AH21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="34:40">
       <c r="AH22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="34:40">
       <c r="AH23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="34:40">
       <c r="AH24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="34:40">
       <c r="AH25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="34:40">
       <c r="AH26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="34:40">
       <c r="AH27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="34:40">
       <c r="AH28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="34:40">
       <c r="AH29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="34:40">
       <c r="AH30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="34:40">
       <c r="AH31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="34:40">
       <c r="AH32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -28,7 +28,7 @@
     <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
     <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
     <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="708">
   <si>
     <t>alias</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2702,7 +2705,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2746,7 +2749,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2776,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3500,6 +3503,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3524,27 +3532,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3567,122 +3575,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3709,378 +3717,378 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4139,107 +4147,107 @@
   <sheetData>
     <row r="1" spans="8:62">
       <c r="H1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AI1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AN1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AT1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AX1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BF1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="BJ1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="8:62">
       <c r="H2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="T2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AN2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AT2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AX2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BF2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="BJ2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="8:62">
       <c r="AG3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AH3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM3" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AN3" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AT3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="BF3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4247,22 +4255,22 @@
     </row>
     <row r="4" spans="8:62">
       <c r="AG4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AH4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AN4" t="s">
         <v>615</v>
       </c>
-      <c r="AN4" t="s">
-        <v>614</v>
-      </c>
       <c r="BF4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="BJ4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4270,13 +4278,13 @@
         <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM5" t="s">
+        <v>617</v>
+      </c>
+      <c r="AN5" t="s">
         <v>616</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>615</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4284,126 +4292,126 @@
     </row>
     <row r="6" spans="8:62">
       <c r="AG6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AN6" t="s">
         <v>617</v>
       </c>
-      <c r="AN6" t="s">
-        <v>616</v>
-      </c>
       <c r="BF6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="8:62">
       <c r="AG7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AH7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM7" t="s">
+        <v>619</v>
+      </c>
+      <c r="AN7" t="s">
         <v>618</v>
       </c>
-      <c r="AN7" t="s">
-        <v>617</v>
-      </c>
       <c r="BF7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="8:62">
       <c r="AH8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM8" t="s">
+        <v>620</v>
+      </c>
+      <c r="AN8" t="s">
         <v>619</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="9" spans="8:62">
       <c r="AH9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AN9" t="s">
         <v>620</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="10" spans="8:62">
       <c r="AH10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AN10" t="s">
         <v>621</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="11" spans="8:62">
       <c r="AH11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM11" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN11" t="s">
         <v>622</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="12" spans="8:62">
       <c r="AH12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AN12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="8:62">
       <c r="AH13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM13" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AN13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="8:62">
       <c r="AH14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM14" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AN14" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="8:62">
       <c r="AH15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN15" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="8:62">
       <c r="AH16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN16" t="s">
         <v>116</v>
@@ -4411,1370 +4419,1370 @@
     </row>
     <row r="17" spans="34:40">
       <c r="AH17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN17" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="34:40">
       <c r="AH18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="34:40">
       <c r="AH19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="34:40">
       <c r="AH20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="34:40">
       <c r="AH21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="34:40">
       <c r="AH22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="34:40">
       <c r="AH23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="34:40">
       <c r="AH24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="34:40">
       <c r="AH25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="34:40">
       <c r="AH26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="34:40">
       <c r="AH27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="34:40">
       <c r="AH28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="34:40">
       <c r="AH29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="34:40">
       <c r="AH30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="34:40">
       <c r="AH31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="34:40">
       <c r="AH32" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="34:34">
       <c r="AH33" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="34:34">
       <c r="AH34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="34:34">
       <c r="AH35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="34:34">
       <c r="AH36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="34:34">
       <c r="AH37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="34:34">
       <c r="AH38" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="34:34">
       <c r="AH39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="34:34">
       <c r="AH40" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="34:34">
       <c r="AH41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="34:34">
       <c r="AH42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="34:34">
       <c r="AH43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="34:34">
       <c r="AH44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="34:34">
       <c r="AH45" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="34:34">
       <c r="AH46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="34:34">
       <c r="AH47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="34:34">
       <c r="AH48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="34:34">
       <c r="AH49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="34:34">
       <c r="AH50" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="34:34">
       <c r="AH51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="34:34">
       <c r="AH52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="34:34">
       <c r="AH53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="34:34">
       <c r="AH54" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="34:34">
       <c r="AH55" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="34:34">
       <c r="AH56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="34:34">
       <c r="AH57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="34:34">
       <c r="AH58" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="34:34">
       <c r="AH59" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="34:34">
       <c r="AH60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="34:34">
       <c r="AH61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="34:34">
       <c r="AH62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="34:34">
       <c r="AH63" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="34:34">
       <c r="AH64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="34:34">
       <c r="AH65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="34:34">
       <c r="AH66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="34:34">
       <c r="AH67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="34:34">
       <c r="AH68" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="34:34">
       <c r="AH69" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="34:34">
       <c r="AH70" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="34:34">
       <c r="AH71" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="34:34">
       <c r="AH72" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="34:34">
       <c r="AH73" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="34:34">
       <c r="AH74" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="34:34">
       <c r="AH75" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="34:34">
       <c r="AH76" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="34:34">
       <c r="AH77" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="34:34">
       <c r="AH78" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="34:34">
       <c r="AH79" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="34:34">
       <c r="AH80" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="34:34">
       <c r="AH81" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="34:34">
       <c r="AH82" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="34:34">
       <c r="AH83" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="34:34">
       <c r="AH84" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="34:34">
       <c r="AH85" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="34:34">
       <c r="AH86" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="34:34">
       <c r="AH87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="34:34">
       <c r="AH88" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="34:34">
       <c r="AH89" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="34:34">
       <c r="AH90" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="34:34">
       <c r="AH91" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="34:34">
       <c r="AH92" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="34:34">
       <c r="AH93" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="34:34">
       <c r="AH94" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="34:34">
       <c r="AH95" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="34:34">
       <c r="AH96" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="34:34">
       <c r="AH97" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="34:34">
       <c r="AH98" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="34:34">
       <c r="AH99" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="34:34">
       <c r="AH100" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101" spans="34:34">
       <c r="AH101" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="34:34">
       <c r="AH102" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="34:34">
       <c r="AH103" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="34:34">
       <c r="AH104" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="34:34">
       <c r="AH105" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="34:34">
       <c r="AH106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="34:34">
       <c r="AH107" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="34:34">
       <c r="AH108" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="34:34">
       <c r="AH109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="34:34">
       <c r="AH110" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="34:34">
       <c r="AH111" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="34:34">
       <c r="AH112" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="34:34">
       <c r="AH113" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="34:34">
       <c r="AH114" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="34:34">
       <c r="AH115" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="34:34">
       <c r="AH116" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="34:34">
       <c r="AH117" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="34:34">
       <c r="AH118" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="34:34">
       <c r="AH119" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="34:34">
       <c r="AH120" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="34:34">
       <c r="AH121" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="34:34">
       <c r="AH122" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="34:34">
       <c r="AH123" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="34:34">
       <c r="AH124" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="34:34">
       <c r="AH125" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="34:34">
       <c r="AH126" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="34:34">
       <c r="AH127" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="34:34">
       <c r="AH128" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="34:34">
       <c r="AH129" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="34:34">
       <c r="AH130" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="34:34">
       <c r="AH131" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="34:34">
       <c r="AH132" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="34:34">
       <c r="AH133" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="34:34">
       <c r="AH134" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="34:34">
       <c r="AH135" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="34:34">
       <c r="AH136" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="34:34">
       <c r="AH137" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="34:34">
       <c r="AH138" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="34:34">
       <c r="AH139" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="34:34">
       <c r="AH140" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="34:34">
       <c r="AH141" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="34:34">
       <c r="AH142" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="34:34">
       <c r="AH143" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="34:34">
       <c r="AH144" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="34:34">
       <c r="AH145" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="34:34">
       <c r="AH146" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="34:34">
       <c r="AH147" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="34:34">
       <c r="AH148" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="34:34">
       <c r="AH149" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="34:34">
       <c r="AH150" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="151" spans="34:34">
       <c r="AH151" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="34:34">
       <c r="AH152" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="34:34">
       <c r="AH153" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="34:34">
       <c r="AH154" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="34:34">
       <c r="AH155" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="34:34">
       <c r="AH156" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="34:34">
       <c r="AH157" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="34:34">
       <c r="AH158" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="34:34">
       <c r="AH159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="34:34">
       <c r="AH160" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="34:34">
       <c r="AH161" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="34:34">
       <c r="AH162" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="34:34">
       <c r="AH163" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="34:34">
       <c r="AH164" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="34:34">
       <c r="AH165" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="34:34">
       <c r="AH166" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="34:34">
       <c r="AH167" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="34:34">
       <c r="AH168" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="34:34">
       <c r="AH169" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="34:34">
       <c r="AH170" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="34:34">
       <c r="AH171" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="34:34">
       <c r="AH172" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="34:34">
       <c r="AH173" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="34:34">
       <c r="AH174" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="34:34">
       <c r="AH175" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="34:34">
       <c r="AH176" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="177" spans="34:34">
       <c r="AH177" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="34:34">
       <c r="AH178" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="34:34">
       <c r="AH179" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="34:34">
       <c r="AH180" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="34:34">
       <c r="AH181" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="34:34">
       <c r="AH182" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="183" spans="34:34">
       <c r="AH183" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="34:34">
       <c r="AH184" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="34:34">
       <c r="AH185" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="34:34">
       <c r="AH186" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="34:34">
       <c r="AH187" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="34:34">
       <c r="AH188" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="34:34">
       <c r="AH189" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="34:34">
       <c r="AH190" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="34:34">
       <c r="AH191" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="34:34">
       <c r="AH192" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="34:34">
       <c r="AH193" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="34:34">
       <c r="AH194" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="34:34">
       <c r="AH195" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="34:34">
       <c r="AH196" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="34:34">
       <c r="AH197" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="34:34">
       <c r="AH198" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="34:34">
       <c r="AH199" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="34:34">
       <c r="AH200" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201" spans="34:34">
       <c r="AH201" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="34:34">
       <c r="AH202" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="34:34">
       <c r="AH203" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="204" spans="34:34">
       <c r="AH204" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="34:34">
       <c r="AH205" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="206" spans="34:34">
       <c r="AH206" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="34:34">
       <c r="AH207" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208" spans="34:34">
       <c r="AH208" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="34:34">
       <c r="AH209" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="34:34">
       <c r="AH210" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="34:34">
       <c r="AH211" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="212" spans="34:34">
       <c r="AH212" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="34:34">
       <c r="AH213" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="34:34">
       <c r="AH214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="34:34">
       <c r="AH215" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="34:34">
       <c r="AH216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="34:34">
       <c r="AH217" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="34:34">
       <c r="AH218" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="34:34">
       <c r="AH219" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="34:34">
       <c r="AH220" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="221" spans="34:34">
       <c r="AH221" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="34:34">
       <c r="AH222" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="34:34">
       <c r="AH223" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="34:34">
       <c r="AH224" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="34:34">
       <c r="AH225" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="34:34">
       <c r="AH226" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="34:34">
       <c r="AH227" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="34:34">
       <c r="AH228" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="229" spans="34:34">
       <c r="AH229" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="230" spans="34:34">
       <c r="AH230" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="34:34">
       <c r="AH231" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="34:34">
       <c r="AH232" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="34:34">
       <c r="AH233" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="34:34">
       <c r="AH234" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="34:34">
       <c r="AH235" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="34:34">
       <c r="AH236" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="34:34">
       <c r="AH237" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="34:34">
       <c r="AH238" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="34:34">
       <c r="AH239" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="34:34">
       <c r="AH240" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="241" spans="34:34">
       <c r="AH241" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242" spans="34:34">
       <c r="AH242" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="34:34">
       <c r="AH243" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="34:34">
       <c r="AH244" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="34:34">
       <c r="AH245" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="246" spans="34:34">
       <c r="AH246" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="34:34">
       <c r="AH247" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="248" spans="34:34">
       <c r="AH248" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="249" spans="34:34">
       <c r="AH249" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="250" spans="34:34">
       <c r="AH250" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="34:34">
       <c r="AH251" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="34:34">
       <c r="AH252" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="34:34">
       <c r="AH253" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="34:34">
       <c r="AH254" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="255" spans="34:34">
       <c r="AH255" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="256" spans="34:34">
       <c r="AH256" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="257" spans="34:34">
       <c r="AH257" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="258" spans="34:34">
       <c r="AH258" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="259" spans="34:34">
       <c r="AH259" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="260" spans="34:34">
       <c r="AH260" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="261" spans="34:34">
       <c r="AH261" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="262" spans="34:34">
       <c r="AH262" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="34:34">
       <c r="AH263" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="34:34">
       <c r="AH264" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="265" spans="34:34">
       <c r="AH265" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="266" spans="34:34">
       <c r="AH266" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="267" spans="34:34">
       <c r="AH267" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="34:34">
       <c r="AH268" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="269" spans="34:34">
       <c r="AH269" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="270" spans="34:34">
       <c r="AH270" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="271" spans="34:34">
       <c r="AH271" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="272" spans="34:34">
       <c r="AH272" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="273" spans="34:34">
       <c r="AH273" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="274" spans="34:34">
       <c r="AH274" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="275" spans="34:34">
       <c r="AH275" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="276" spans="34:34">
       <c r="AH276" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="34:34">
       <c r="AH277" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="278" spans="34:34">
       <c r="AH278" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="279" spans="34:34">
       <c r="AH279" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="280" spans="34:34">
       <c r="AH280" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="34:34">
       <c r="AH281" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="34:34">
       <c r="AH282" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="34:34">
       <c r="AH283" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="284" spans="34:34">
       <c r="AH284" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="285" spans="34:34">
       <c r="AH285" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286" spans="34:34">
       <c r="AH286" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="287" spans="34:34">
       <c r="AH287" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="288" spans="34:34">
       <c r="AH288" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BJ$1:$BJ$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$AI$1:$AI$3</definedName>
@@ -32,7 +32,7 @@
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
+    <definedName name="lineageswlrequiredforh1n1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
     <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="713">
   <si>
     <t>alias</t>
   </si>
@@ -855,19 +855,19 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>number of inoculated individuals</t>
+    <t>number_of_inoculated_individuals</t>
   </si>
   <si>
     <t>(Optional) Number of host individuals inoculated for the experiment.</t>
   </si>
   <si>
-    <t>inoculation route</t>
+    <t>inoculation_route</t>
   </si>
   <si>
     <t>(Optional) Brief description of the protocol inoculation route.</t>
   </si>
   <si>
-    <t>inoculation dose</t>
+    <t>inoculation_dose</t>
   </si>
   <si>
     <t>(Optional) Dose used for the inoculoation experiment.</t>
@@ -879,31 +879,31 @@
     <t>yes</t>
   </si>
   <si>
-    <t>inoculation stock availability</t>
+    <t>inoculation_stock_availability</t>
   </si>
   <si>
     <t>(Optional) Is the virus stock used for the inoculation available?</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject exposure</t>
+    <t>subject_exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
-    <t>type exposure</t>
+    <t>type_exposure</t>
   </si>
   <si>
     <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
   </si>
   <si>
-    <t>personal protective equipment</t>
+    <t>personal_protective_equipment</t>
   </si>
   <si>
     <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
@@ -915,37 +915,37 @@
     <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
   </si>
   <si>
-    <t>antiviral treatment</t>
+    <t>antiviral_treatment</t>
   </si>
   <si>
     <t>(Optional) Antiviral treatment used for this subject, such as zanamavir oseltamivir, amantadine. example: rimantadine</t>
   </si>
   <si>
-    <t>antiviral treatment initiation</t>
+    <t>antiviral_treatment_initiation</t>
   </si>
   <si>
     <t>(Optional) Initiation of antiviral treatment after onset of clinical symptoms in days. example: 2.5</t>
   </si>
   <si>
-    <t>antiviral treatment dosage</t>
+    <t>antiviral_treatment_dosage</t>
   </si>
   <si>
     <t>(Optional) Dosage of the treatment taken by the subject. example: 0.05 mg</t>
   </si>
   <si>
-    <t>antiviral treatment duration</t>
+    <t>antiviral_treatment_duration</t>
   </si>
   <si>
     <t>(Optional) Duration of antiviral treatment after onset of clinical symptoms in days.example: 5</t>
   </si>
   <si>
-    <t>influenza vaccination type</t>
+    <t>influenza_vaccination_type</t>
   </si>
   <si>
     <t>(Optional) Influenza vaccinations that have been administered to the subject over the last year. example: 2009 h1n1 flumist</t>
   </si>
   <si>
-    <t>influenza vaccination date</t>
+    <t>influenza_vaccination_date</t>
   </si>
   <si>
     <t>(Optional) Date that the influenza vaccination was administered to the subject over the past year. format: yyyy-mm-dd. example: 2007-05-12</t>
@@ -957,82 +957,82 @@
     <t>self reported</t>
   </si>
   <si>
-    <t>source of vaccination information</t>
+    <t>source_of_vaccination_information</t>
   </si>
   <si>
     <t>(Optional) Designation of information related to vaccination history as self reported or documented.</t>
   </si>
   <si>
-    <t>vaccine lot number</t>
+    <t>vaccine_lot_number</t>
   </si>
   <si>
     <t>(Optional) Lot number of the vaccine.</t>
   </si>
   <si>
-    <t>vaccine manufacturer</t>
+    <t>vaccine_manufacturer</t>
   </si>
   <si>
     <t>(Optional) Manufacturer of the vaccine.</t>
   </si>
   <si>
-    <t>vaccine dosage</t>
+    <t>vaccine_dosage</t>
   </si>
   <si>
     <t>(Optional) Dosage of the vaccine taken by the subject. example: 0.05 ml</t>
   </si>
   <si>
-    <t>influenza-like illness at the time of sample collection</t>
+    <t>influenzalike_illness_at_the_time_of_sample_collection</t>
   </si>
   <si>
     <t>(Optional) Is the subject at the time of sample collection considered to have influenza like illness?</t>
   </si>
   <si>
-    <t>illness onset date</t>
+    <t>illness_onset_date</t>
   </si>
   <si>
     <t>(Optional) Date the subject showed an onset of symptoms. format: yyyy-mm-dd. example: 2011-10-20</t>
   </si>
   <si>
-    <t>illness duration</t>
+    <t>illness_duration</t>
   </si>
   <si>
     <t>(Optional) The number of days the illness lasted. example: 4</t>
   </si>
   <si>
-    <t>illness symptoms</t>
+    <t>illness_symptoms</t>
   </si>
   <si>
     <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>subject_exposure_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1053,7 +1053,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample capture status</t>
+    <t>sample_capture_status</t>
   </si>
   <si>
     <t>(Recommended) Reason for the sample collection.</t>
@@ -1272,9 +1272,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1293,6 +1290,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1494,6 +1494,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1503,9 +1506,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1545,7 +1545,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1614,6 +1614,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1689,6 +1692,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1710,6 +1716,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1755,6 +1764,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1767,6 +1779,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1776,9 +1791,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1803,6 +1815,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1863,12 +1878,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1926,7 +1941,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1941,25 +1956,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host disease outcome</t>
+    <t>host_disease_outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host common name</t>
+    <t>host_common_name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1971,7 +1986,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host health state</t>
+    <t>host_health_state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1989,37 +2004,37 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Mandatory) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>influenza test method</t>
+    <t>influenza_test_method</t>
   </si>
   <si>
     <t>(Mandatory) Method by which the current assessment of a sample as flu positive/negative is made. if multiple test were performed, please state them separated by semicolon. example: rt-pcr; antigen elisa</t>
   </si>
   <si>
-    <t>influenza test result</t>
+    <t>influenza_test_result</t>
   </si>
   <si>
     <t>(Mandatory) Classification of a sample as flu positive or negative based on the test performed and reported. if multiple tests were performed, please state the results in the same order in which you reported the tests in the field 'influenza test method'. format: p(ositive)/n(egative). example: p; p</t>
   </si>
   <si>
-    <t>other pathogens tested</t>
+    <t>other_pathogens_tested</t>
   </si>
   <si>
     <t>(Mandatory) Classification of pathogenic organisms other than influenza virus tested in the current assessment of a sample. if multiple tests were performed, please state them separated by semicolon. if no other pathogens test was performed, please state 'none'. example: newcastle</t>
   </si>
   <si>
-    <t>other pathogens test result</t>
+    <t>other_pathogens_test_result</t>
   </si>
   <si>
     <t>(Mandatory) Classification of a sample as positive or negative based on the test performed and reported. if tests for multiple pathogenic organisms were performed, please state the results in the same order in which you reported the tests in the field 'other pathogens tested'. format: p(ositive)/n(egative)/not applicable. example: n</t>
@@ -2034,67 +2049,67 @@
     <t>C</t>
   </si>
   <si>
-    <t>influenza virus type</t>
+    <t>influenza_virus_type</t>
   </si>
   <si>
     <t>(Recommended) One of the three influenza virus classification types.</t>
   </si>
   <si>
-    <t>virus identifier</t>
+    <t>virus_identifier</t>
   </si>
   <si>
     <t>(Recommended) Unique laboratory identifier assigned to the virus by the investigator. strain name is not sufficient since it might not be unique due to various passsages of the same virus. format: up to 50 alphanumeric characters</t>
   </si>
   <si>
-    <t>influenza strain unique number</t>
+    <t>influenza_strain_unique_number</t>
   </si>
   <si>
     <t>(Optional) Unique number of the strain which is reported as a part of the influenza strain name, such as a/chicken/fujian/411/2002(hxn1). format: integer number, example: 411</t>
   </si>
   <si>
-    <t>WHO/OIE/FAO clade (required for HPAI H5N1 viruses)</t>
+    <t>whooiefao_clade_required_for_hpai_h5n1_viruses</t>
   </si>
   <si>
     <t>(Optional) Who/oie/fao clade should be included for highly pathogenic h5n1 viruses. example: 2.2</t>
   </si>
   <si>
-    <t>lineage:swl (required for H1N1 viruses)</t>
+    <t>lineageswl_required_for_h1n1_viruses</t>
   </si>
   <si>
     <t>(Optional) Does the h1n1 influenza virus originate from a swine-like outbreak (as opposed to a seasonal flu)?</t>
   </si>
   <si>
-    <t>collector name</t>
+    <t>collector_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting institution</t>
+    <t>collecting_institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
   </si>
   <si>
-    <t>receipt date</t>
+    <t>receipt_date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>definition for seropositive sample</t>
+    <t>definition_for_seropositive_sample</t>
   </si>
   <si>
     <t>(Recommended) The cut off value used by an investigatior in determining that a sample was seropositive.</t>
   </si>
   <si>
-    <t>meaning of cut off value</t>
+    <t>meaning_of_cut_off_value</t>
   </si>
   <si>
     <t>(Optional) Description helping to explain what the cut off value means.</t>
   </si>
   <si>
-    <t>serotype (required for a seropositive sample)</t>
+    <t>serotype_required_for_a_seropositive_sample</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterised by its antigenic properties. for influenza, ha subtype should be the letter h followed by a number between 1-16 unless novel subtype is identified and the na subtype should be the letter n followed by a number between 1-9 unless novel subtype is identified. if only one of the subtypes have been tested then use the format h5nx or hxn1. example: h1n1</t>
@@ -2124,19 +2139,19 @@
     <t>wild:resident</t>
   </si>
   <si>
-    <t>host habitat</t>
+    <t>host_habitat</t>
   </si>
   <si>
     <t>(Recommended) Natural habitat of the avian or mammalian host.</t>
   </si>
   <si>
-    <t>isolation source host-associated</t>
+    <t>isolation_source_hostassociated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host description</t>
+    <t>host_description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -2157,13 +2172,13 @@
     <t>wild</t>
   </si>
   <si>
-    <t>host behaviour</t>
+    <t>host_behaviour</t>
   </si>
   <si>
     <t>(Recommended) Natural behaviour of the host.</t>
   </si>
   <si>
-    <t>isolation source non-host-associated</t>
+    <t>isolation_source_nonhostassociated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3810,94 +3825,94 @@
         <v>336</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -4001,94 +4016,94 @@
         <v>337</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4139,7 @@
       <formula1>influenzavirustype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
-      <formula1>lineageswlrequiredforH1N1viruses</formula1>
+      <formula1>lineageswlrequiredforh1n1viruses</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
       <formula1>hosthabitat</formula1>
@@ -4139,7 +4154,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:BJ289"/>
+  <dimension ref="H1:BJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4165,25 +4180,25 @@
         <v>338</v>
       </c>
       <c r="AI1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AM1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AN1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AT1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AX1" t="s">
         <v>276</v>
       </c>
       <c r="BF1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BJ1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="8:62">
@@ -4206,25 +4221,25 @@
         <v>339</v>
       </c>
       <c r="AI2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AM2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AT2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AX2" t="s">
         <v>277</v>
       </c>
       <c r="BF2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BJ2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3" spans="8:62">
@@ -4235,19 +4250,19 @@
         <v>340</v>
       </c>
       <c r="AI3" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AM3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AN3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AT3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="BF3" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4261,16 +4276,16 @@
         <v>341</v>
       </c>
       <c r="AM4" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AN4" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="BF4" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BJ4" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4281,10 +4296,10 @@
         <v>342</v>
       </c>
       <c r="AM5" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="AN5" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4298,13 +4313,13 @@
         <v>343</v>
       </c>
       <c r="AM6" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AN6" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="BF6" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="8:62">
@@ -4315,13 +4330,13 @@
         <v>344</v>
       </c>
       <c r="AM7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AN7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="BF7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="8:62">
@@ -4329,10 +4344,10 @@
         <v>345</v>
       </c>
       <c r="AM8" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AN8" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="8:62">
@@ -4340,10 +4355,10 @@
         <v>346</v>
       </c>
       <c r="AM9" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AN9" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="8:62">
@@ -4351,10 +4366,10 @@
         <v>347</v>
       </c>
       <c r="AM10" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AN10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="8:62">
@@ -4362,10 +4377,10 @@
         <v>348</v>
       </c>
       <c r="AM11" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AN11" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="8:62">
@@ -4373,10 +4388,10 @@
         <v>349</v>
       </c>
       <c r="AM12" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AN12" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="8:62">
@@ -4384,10 +4399,10 @@
         <v>350</v>
       </c>
       <c r="AM13" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AN13" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="8:62">
@@ -4395,10 +4410,10 @@
         <v>351</v>
       </c>
       <c r="AM14" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AN14" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="8:62">
@@ -4406,7 +4421,7 @@
         <v>352</v>
       </c>
       <c r="AN15" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="8:62">
@@ -4422,7 +4437,7 @@
         <v>354</v>
       </c>
       <c r="AN17" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="34:40">
@@ -5783,6 +5798,31 @@
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="290" spans="34:34">
+      <c r="AH290" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="291" spans="34:34">
+      <c r="AH291" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="292" spans="34:34">
+      <c r="AH292" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="293" spans="34:34">
+      <c r="AH293" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="294" spans="34:34">
+      <c r="AH294" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
     <definedName name="hospitalisation">'cv_sample'!$M$1:$M$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BJ$1:$BJ$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$AI$1:$AI$3</definedName>
@@ -32,7 +32,7 @@
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lineageswlrequiredforh1n1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
+    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
     <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="708">
   <si>
     <t>alias</t>
   </si>
@@ -855,19 +855,19 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>number_of_inoculated_individuals</t>
+    <t>number of inoculated individuals</t>
   </si>
   <si>
     <t>(Optional) Number of host individuals inoculated for the experiment.</t>
   </si>
   <si>
-    <t>inoculation_route</t>
+    <t>inoculation route</t>
   </si>
   <si>
     <t>(Optional) Brief description of the protocol inoculation route.</t>
   </si>
   <si>
-    <t>inoculation_dose</t>
+    <t>inoculation dose</t>
   </si>
   <si>
     <t>(Optional) Dose used for the inoculoation experiment.</t>
@@ -879,31 +879,31 @@
     <t>yes</t>
   </si>
   <si>
-    <t>inoculation_stock_availability</t>
+    <t>inoculation stock availability</t>
   </si>
   <si>
     <t>(Optional) Is the virus stock used for the inoculation available?</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject_exposure</t>
+    <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
-    <t>type_exposure</t>
+    <t>type exposure</t>
   </si>
   <si>
     <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
   </si>
   <si>
-    <t>personal_protective_equipment</t>
+    <t>personal protective equipment</t>
   </si>
   <si>
     <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
@@ -915,37 +915,37 @@
     <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
   </si>
   <si>
-    <t>antiviral_treatment</t>
+    <t>antiviral treatment</t>
   </si>
   <si>
     <t>(Optional) Antiviral treatment used for this subject, such as zanamavir oseltamivir, amantadine. example: rimantadine</t>
   </si>
   <si>
-    <t>antiviral_treatment_initiation</t>
+    <t>antiviral treatment initiation</t>
   </si>
   <si>
     <t>(Optional) Initiation of antiviral treatment after onset of clinical symptoms in days. example: 2.5</t>
   </si>
   <si>
-    <t>antiviral_treatment_dosage</t>
+    <t>antiviral treatment dosage</t>
   </si>
   <si>
     <t>(Optional) Dosage of the treatment taken by the subject. example: 0.05 mg</t>
   </si>
   <si>
-    <t>antiviral_treatment_duration</t>
+    <t>antiviral treatment duration</t>
   </si>
   <si>
     <t>(Optional) Duration of antiviral treatment after onset of clinical symptoms in days.example: 5</t>
   </si>
   <si>
-    <t>influenza_vaccination_type</t>
+    <t>influenza vaccination type</t>
   </si>
   <si>
     <t>(Optional) Influenza vaccinations that have been administered to the subject over the last year. example: 2009 h1n1 flumist</t>
   </si>
   <si>
-    <t>influenza_vaccination_date</t>
+    <t>influenza vaccination date</t>
   </si>
   <si>
     <t>(Optional) Date that the influenza vaccination was administered to the subject over the past year. format: yyyy-mm-dd. example: 2007-05-12</t>
@@ -957,82 +957,82 @@
     <t>self reported</t>
   </si>
   <si>
-    <t>source_of_vaccination_information</t>
+    <t>source of vaccination information</t>
   </si>
   <si>
     <t>(Optional) Designation of information related to vaccination history as self reported or documented.</t>
   </si>
   <si>
-    <t>vaccine_lot_number</t>
+    <t>vaccine lot number</t>
   </si>
   <si>
     <t>(Optional) Lot number of the vaccine.</t>
   </si>
   <si>
-    <t>vaccine_manufacturer</t>
+    <t>vaccine manufacturer</t>
   </si>
   <si>
     <t>(Optional) Manufacturer of the vaccine.</t>
   </si>
   <si>
-    <t>vaccine_dosage</t>
+    <t>vaccine dosage</t>
   </si>
   <si>
     <t>(Optional) Dosage of the vaccine taken by the subject. example: 0.05 ml</t>
   </si>
   <si>
-    <t>influenzalike_illness_at_the_time_of_sample_collection</t>
+    <t>influenza-like illness at the time of sample collection</t>
   </si>
   <si>
     <t>(Optional) Is the subject at the time of sample collection considered to have influenza like illness?</t>
   </si>
   <si>
-    <t>illness_onset_date</t>
+    <t>illness onset date</t>
   </si>
   <si>
     <t>(Optional) Date the subject showed an onset of symptoms. format: yyyy-mm-dd. example: 2011-10-20</t>
   </si>
   <si>
-    <t>illness_duration</t>
+    <t>illness duration</t>
   </si>
   <si>
     <t>(Optional) The number of days the illness lasted. example: 4</t>
   </si>
   <si>
-    <t>illness_symptoms</t>
+    <t>illness symptoms</t>
   </si>
   <si>
     <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject_exposure_duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1053,7 +1053,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample_capture_status</t>
+    <t>sample capture status</t>
   </si>
   <si>
     <t>(Recommended) Reason for the sample collection.</t>
@@ -1272,6 +1272,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1290,9 +1293,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1494,9 +1494,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1506,6 +1503,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1545,7 +1545,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1614,9 +1614,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1692,9 +1689,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1716,9 +1710,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1764,9 +1755,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1779,9 +1767,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1791,6 +1776,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1815,9 +1803,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1878,12 +1863,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1941,7 +1926,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1956,25 +1941,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host_disease_outcome</t>
+    <t>host disease outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host_common_name</t>
+    <t>host common name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1986,7 +1971,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host_health_state</t>
+    <t>host health state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -2004,37 +1989,37 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Mandatory) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>influenza_test_method</t>
+    <t>influenza test method</t>
   </si>
   <si>
     <t>(Mandatory) Method by which the current assessment of a sample as flu positive/negative is made. if multiple test were performed, please state them separated by semicolon. example: rt-pcr; antigen elisa</t>
   </si>
   <si>
-    <t>influenza_test_result</t>
+    <t>influenza test result</t>
   </si>
   <si>
     <t>(Mandatory) Classification of a sample as flu positive or negative based on the test performed and reported. if multiple tests were performed, please state the results in the same order in which you reported the tests in the field 'influenza test method'. format: p(ositive)/n(egative). example: p; p</t>
   </si>
   <si>
-    <t>other_pathogens_tested</t>
+    <t>other pathogens tested</t>
   </si>
   <si>
     <t>(Mandatory) Classification of pathogenic organisms other than influenza virus tested in the current assessment of a sample. if multiple tests were performed, please state them separated by semicolon. if no other pathogens test was performed, please state 'none'. example: newcastle</t>
   </si>
   <si>
-    <t>other_pathogens_test_result</t>
+    <t>other pathogens test result</t>
   </si>
   <si>
     <t>(Mandatory) Classification of a sample as positive or negative based on the test performed and reported. if tests for multiple pathogenic organisms were performed, please state the results in the same order in which you reported the tests in the field 'other pathogens tested'. format: p(ositive)/n(egative)/not applicable. example: n</t>
@@ -2049,67 +2034,67 @@
     <t>C</t>
   </si>
   <si>
-    <t>influenza_virus_type</t>
+    <t>influenza virus type</t>
   </si>
   <si>
     <t>(Recommended) One of the three influenza virus classification types.</t>
   </si>
   <si>
-    <t>virus_identifier</t>
+    <t>virus identifier</t>
   </si>
   <si>
     <t>(Recommended) Unique laboratory identifier assigned to the virus by the investigator. strain name is not sufficient since it might not be unique due to various passsages of the same virus. format: up to 50 alphanumeric characters</t>
   </si>
   <si>
-    <t>influenza_strain_unique_number</t>
+    <t>influenza strain unique number</t>
   </si>
   <si>
     <t>(Optional) Unique number of the strain which is reported as a part of the influenza strain name, such as a/chicken/fujian/411/2002(hxn1). format: integer number, example: 411</t>
   </si>
   <si>
-    <t>whooiefao_clade_required_for_hpai_h5n1_viruses</t>
+    <t>WHO/OIE/FAO clade (required for HPAI H5N1 viruses)</t>
   </si>
   <si>
     <t>(Optional) Who/oie/fao clade should be included for highly pathogenic h5n1 viruses. example: 2.2</t>
   </si>
   <si>
-    <t>lineageswl_required_for_h1n1_viruses</t>
+    <t>lineage:swl (required for H1N1 viruses)</t>
   </si>
   <si>
     <t>(Optional) Does the h1n1 influenza virus originate from a swine-like outbreak (as opposed to a seasonal flu)?</t>
   </si>
   <si>
-    <t>collector_name</t>
+    <t>collector name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting_institution</t>
+    <t>collecting institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
   </si>
   <si>
-    <t>receipt_date</t>
+    <t>receipt date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>definition_for_seropositive_sample</t>
+    <t>definition for seropositive sample</t>
   </si>
   <si>
     <t>(Recommended) The cut off value used by an investigatior in determining that a sample was seropositive.</t>
   </si>
   <si>
-    <t>meaning_of_cut_off_value</t>
+    <t>meaning of cut off value</t>
   </si>
   <si>
     <t>(Optional) Description helping to explain what the cut off value means.</t>
   </si>
   <si>
-    <t>serotype_required_for_a_seropositive_sample</t>
+    <t>serotype (required for a seropositive sample)</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterised by its antigenic properties. for influenza, ha subtype should be the letter h followed by a number between 1-16 unless novel subtype is identified and the na subtype should be the letter n followed by a number between 1-9 unless novel subtype is identified. if only one of the subtypes have been tested then use the format h5nx or hxn1. example: h1n1</t>
@@ -2139,19 +2124,19 @@
     <t>wild:resident</t>
   </si>
   <si>
-    <t>host_habitat</t>
+    <t>host habitat</t>
   </si>
   <si>
     <t>(Recommended) Natural habitat of the avian or mammalian host.</t>
   </si>
   <si>
-    <t>isolation_source_hostassociated</t>
+    <t>isolation source host-associated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host_description</t>
+    <t>host description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -2172,13 +2157,13 @@
     <t>wild</t>
   </si>
   <si>
-    <t>host_behaviour</t>
+    <t>host behaviour</t>
   </si>
   <si>
     <t>(Recommended) Natural behaviour of the host.</t>
   </si>
   <si>
-    <t>isolation_source_nonhostassociated</t>
+    <t>isolation source non-host-associated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3825,94 +3810,94 @@
         <v>336</v>
       </c>
       <c r="AH1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="AJ1" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="AU1" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="BK1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:63" ht="150" customHeight="1">
@@ -4016,94 +4001,94 @@
         <v>337</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="AS2" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="AU2" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="BI2" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="BJ2" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="BK2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4139,7 +4124,7 @@
       <formula1>influenzavirustype</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
-      <formula1>lineageswlrequiredforh1n1viruses</formula1>
+      <formula1>lineageswlrequiredforH1N1viruses</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
       <formula1>hosthabitat</formula1>
@@ -4154,7 +4139,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:BJ294"/>
+  <dimension ref="H1:BJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4180,25 +4165,25 @@
         <v>338</v>
       </c>
       <c r="AI1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AM1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="AN1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AT1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AX1" t="s">
         <v>276</v>
       </c>
       <c r="BF1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="BJ1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="8:62">
@@ -4221,25 +4206,25 @@
         <v>339</v>
       </c>
       <c r="AI2" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AM2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="AN2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AT2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AX2" t="s">
         <v>277</v>
       </c>
       <c r="BF2" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="BJ2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="8:62">
@@ -4250,19 +4235,19 @@
         <v>340</v>
       </c>
       <c r="AI3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AM3" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AN3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AT3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="BF3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="BJ3" t="s">
         <v>116</v>
@@ -4276,16 +4261,16 @@
         <v>341</v>
       </c>
       <c r="AM4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="AN4" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="BF4" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="BJ4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="8:62">
@@ -4296,10 +4281,10 @@
         <v>342</v>
       </c>
       <c r="AM5" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="AN5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="BF5" t="s">
         <v>116</v>
@@ -4313,13 +4298,13 @@
         <v>343</v>
       </c>
       <c r="AM6" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AN6" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="BF6" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="8:62">
@@ -4330,13 +4315,13 @@
         <v>344</v>
       </c>
       <c r="AM7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AN7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="BF7" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="8:62">
@@ -4344,10 +4329,10 @@
         <v>345</v>
       </c>
       <c r="AM8" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AN8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="8:62">
@@ -4355,10 +4340,10 @@
         <v>346</v>
       </c>
       <c r="AM9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AN9" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="8:62">
@@ -4366,10 +4351,10 @@
         <v>347</v>
       </c>
       <c r="AM10" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AN10" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" spans="8:62">
@@ -4377,10 +4362,10 @@
         <v>348</v>
       </c>
       <c r="AM11" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AN11" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="8:62">
@@ -4388,10 +4373,10 @@
         <v>349</v>
       </c>
       <c r="AM12" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AN12" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="8:62">
@@ -4399,10 +4384,10 @@
         <v>350</v>
       </c>
       <c r="AM13" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AN13" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="8:62">
@@ -4410,10 +4395,10 @@
         <v>351</v>
       </c>
       <c r="AM14" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AN14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="8:62">
@@ -4421,7 +4406,7 @@
         <v>352</v>
       </c>
       <c r="AN15" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="8:62">
@@ -4437,7 +4422,7 @@
         <v>354</v>
       </c>
       <c r="AN17" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18" spans="34:40">
@@ -5798,31 +5783,6 @@
     <row r="289" spans="34:34">
       <c r="AH289" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="290" spans="34:34">
-      <c r="AH290" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="291" spans="34:34">
-      <c r="AH291" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="292" spans="34:34">
-      <c r="AH292" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="293" spans="34:34">
-      <c r="AH293" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="294" spans="34:34">
-      <c r="AH294" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,24 +18,24 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AH$1:$AH$289</definedName>
-    <definedName name="hospitalisation">'cv_sample'!$M$1:$M$2</definedName>
-    <definedName name="hostbehaviour">'cv_sample'!$BJ$1:$BJ$4</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$AI$1:$AI$3</definedName>
-    <definedName name="hosthabitat">'cv_sample'!$BF$1:$BF$7</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$AM$1:$AM$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$AN$1:$AN$17</definedName>
-    <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$X$1:$X$2</definedName>
-    <definedName name="influenzavirustype">'cv_sample'!$AT$1:$AT$3</definedName>
-    <definedName name="inoculationstockavailability">'cv_sample'!$H$1:$H$2</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="hospitalisation">'cv_sample'!$O$1:$O$2</definedName>
+    <definedName name="hostbehaviour">'cv_sample'!$BL$1:$BL$4</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$AK$1:$AK$3</definedName>
+    <definedName name="hosthabitat">'cv_sample'!$BH$1:$BH$7</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$AO$1:$AO$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$AP$1:$AP$17</definedName>
+    <definedName name="influenzalikeillnessatthetimeofsamplecollection">'cv_sample'!$Z$1:$Z$2</definedName>
+    <definedName name="influenzavirustype">'cv_sample'!$AV$1:$AV$3</definedName>
+    <definedName name="inoculationstockavailability">'cv_sample'!$J$1:$J$2</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AX$1:$AX$2</definedName>
+    <definedName name="lineageswlrequiredforH1N1viruses">'cv_sample'!$AZ$1:$AZ$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$AG$1:$AG$7</definedName>
-    <definedName name="sourceofvaccinationinformation">'cv_sample'!$T$1:$T$2</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$AI$1:$AI$7</definedName>
+    <definedName name="sourceofvaccinationinformation">'cv_sample'!$V$1:$V$2</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="712">
   <si>
     <t>alias</t>
   </si>
@@ -847,6 +847,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3700,7 +3712,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3709,7 +3721,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3732,10 +3744,10 @@
         <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>282</v>
@@ -3768,10 +3780,10 @@
         <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>308</v>
@@ -3807,16 +3819,16 @@
         <v>328</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>627</v>
+        <v>332</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>632</v>
+        <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>636</v>
@@ -3825,13 +3837,13 @@
         <v>638</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="AO1" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>652</v>
@@ -3846,10 +3858,10 @@
         <v>658</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>667</v>
@@ -3882,10 +3894,10 @@
         <v>685</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>697</v>
@@ -3894,13 +3906,19 @@
         <v>699</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" ht="150" customHeight="1">
+        <v>703</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3923,10 +3941,10 @@
         <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>283</v>
@@ -3959,10 +3977,10 @@
         <v>301</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>309</v>
@@ -3998,16 +4016,16 @@
         <v>329</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>628</v>
+        <v>333</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>633</v>
+        <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>637</v>
@@ -4016,13 +4034,13 @@
         <v>639</v>
       </c>
       <c r="AM2" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="AN2" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="AO2" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>653</v>
@@ -4037,10 +4055,10 @@
         <v>659</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>668</v>
@@ -4073,10 +4091,10 @@
         <v>686</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="BH2" s="2" t="s">
         <v>698</v>
@@ -4085,51 +4103,57 @@
         <v>700</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>inoculationstockavailability</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>hospitalisation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>sourceofvaccinationinformation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>influenzalikeillnessatthetimeofsamplecollection</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
       <formula1>influenzavirustype</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX3:AX101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
       <formula1>lineageswlrequiredforH1N1viruses</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH3:BH101">
       <formula1>hosthabitat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ3:BJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL3:BL101">
       <formula1>hostbehaviour</formula1>
     </dataValidation>
   </dataValidations>
@@ -4139,1650 +4163,1650 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H1:BJ289"/>
+  <dimension ref="J1:BL289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="8:62">
-      <c r="H1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" t="s">
-        <v>276</v>
-      </c>
-      <c r="T1" t="s">
-        <v>302</v>
-      </c>
-      <c r="X1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH1" t="s">
+    <row r="1" spans="10:64">
+      <c r="J1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O1" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>664</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>691</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="10:64">
+      <c r="J2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" t="s">
+        <v>281</v>
+      </c>
+      <c r="V2" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>335</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>665</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>692</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="10:64">
+      <c r="AI3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>635</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>666</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>693</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="10:64">
+      <c r="AI4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>619</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>694</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="10:64">
+      <c r="AI5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>621</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>620</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="10:64">
+      <c r="AI6" t="s">
         <v>338</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>622</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>621</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="10:64">
+      <c r="AI7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>623</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>622</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="10:64">
+      <c r="AJ8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="10:64">
+      <c r="AJ9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="10" spans="10:64">
+      <c r="AJ10" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="10:64">
+      <c r="AJ11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>627</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="10:64">
+      <c r="AJ12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>628</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="10:64">
+      <c r="AJ13" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO13" t="s">
         <v>629</v>
       </c>
-      <c r="AM1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>687</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="2" spans="8:62">
-      <c r="H2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M2" t="s">
-        <v>277</v>
-      </c>
-      <c r="T2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AP13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="10:64">
+      <c r="AJ14" t="s">
+        <v>355</v>
+      </c>
+      <c r="AO14" t="s">
         <v>630</v>
       </c>
-      <c r="AM2" t="s">
-        <v>641</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>645</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>661</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>277</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>688</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="8:62">
-      <c r="AG3" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>631</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AP14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="10:64">
+      <c r="AJ15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="10:64">
+      <c r="AJ16" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="36:42">
+      <c r="AJ17" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="36:42">
+      <c r="AJ18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="36:42">
+      <c r="AJ19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="36:42">
+      <c r="AJ20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="36:42">
+      <c r="AJ21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="36:42">
+      <c r="AJ22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="23" spans="36:42">
+      <c r="AJ23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="36:42">
+      <c r="AJ24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="36:42">
+      <c r="AJ25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="36:42">
+      <c r="AJ26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="36:42">
+      <c r="AJ27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="36:42">
+      <c r="AJ28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="36:42">
+      <c r="AJ29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="36:42">
+      <c r="AJ30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="36:42">
+      <c r="AJ31" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="36:42">
+      <c r="AJ32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="36:36">
+      <c r="AJ33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="36:36">
+      <c r="AJ34" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="36:36">
+      <c r="AJ35" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="36" spans="36:36">
+      <c r="AJ36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="36:36">
+      <c r="AJ37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="36:36">
+      <c r="AJ38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="36:36">
+      <c r="AJ39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="36:36">
+      <c r="AJ40" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="36:36">
+      <c r="AJ41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="36:36">
+      <c r="AJ42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="36:36">
+      <c r="AJ43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="36:36">
+      <c r="AJ44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="36:36">
+      <c r="AJ45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="36:36">
+      <c r="AJ46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="36:36">
+      <c r="AJ47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="36:36">
+      <c r="AJ48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="36:36">
+      <c r="AJ49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="36:36">
+      <c r="AJ50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="36:36">
+      <c r="AJ51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="36:36">
+      <c r="AJ52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="36:36">
+      <c r="AJ53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="36:36">
+      <c r="AJ54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55" spans="36:36">
+      <c r="AJ55" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="56" spans="36:36">
+      <c r="AJ56" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" spans="36:36">
+      <c r="AJ57" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="58" spans="36:36">
+      <c r="AJ58" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" spans="36:36">
+      <c r="AJ59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="36:36">
+      <c r="AJ60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="36:36">
+      <c r="AJ61" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="36:36">
+      <c r="AJ62" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="36:36">
+      <c r="AJ63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="36:36">
+      <c r="AJ64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="36:36">
+      <c r="AJ65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="36:36">
+      <c r="AJ66" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="36:36">
+      <c r="AJ67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="36:36">
+      <c r="AJ68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="36:36">
+      <c r="AJ69" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="36:36">
+      <c r="AJ70" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="36:36">
+      <c r="AJ71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="36:36">
+      <c r="AJ72" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="36:36">
+      <c r="AJ73" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="36:36">
+      <c r="AJ74" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="36:36">
+      <c r="AJ75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="36:36">
+      <c r="AJ76" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="36:36">
+      <c r="AJ77" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="36:36">
+      <c r="AJ78" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="36:36">
+      <c r="AJ79" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="36:36">
+      <c r="AJ80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="36:36">
+      <c r="AJ81" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="36:36">
+      <c r="AJ82" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="36:36">
+      <c r="AJ83" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="36:36">
+      <c r="AJ84" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="36:36">
+      <c r="AJ85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="36:36">
+      <c r="AJ86" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="36:36">
+      <c r="AJ87" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="36:36">
+      <c r="AJ88" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="36:36">
+      <c r="AJ89" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="36:36">
+      <c r="AJ90" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="36:36">
+      <c r="AJ91" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="36:36">
+      <c r="AJ92" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="93" spans="36:36">
+      <c r="AJ93" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="94" spans="36:36">
+      <c r="AJ94" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="95" spans="36:36">
+      <c r="AJ95" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="36:36">
+      <c r="AJ96" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="97" spans="36:36">
+      <c r="AJ97" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="98" spans="36:36">
+      <c r="AJ98" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="99" spans="36:36">
+      <c r="AJ99" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="36:36">
+      <c r="AJ100" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="36:36">
+      <c r="AJ101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="36:36">
+      <c r="AJ102" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="103" spans="36:36">
+      <c r="AJ103" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="104" spans="36:36">
+      <c r="AJ104" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="36:36">
+      <c r="AJ105" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="106" spans="36:36">
+      <c r="AJ106" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="36:36">
+      <c r="AJ107" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="108" spans="36:36">
+      <c r="AJ108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="36:36">
+      <c r="AJ109" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="110" spans="36:36">
+      <c r="AJ110" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" spans="36:36">
+      <c r="AJ111" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="112" spans="36:36">
+      <c r="AJ112" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="113" spans="36:36">
+      <c r="AJ113" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="36:36">
+      <c r="AJ114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="36:36">
+      <c r="AJ115" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="36:36">
+      <c r="AJ116" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="36:36">
+      <c r="AJ117" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="36:36">
+      <c r="AJ118" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="119" spans="36:36">
+      <c r="AJ119" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="36:36">
+      <c r="AJ120" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="121" spans="36:36">
+      <c r="AJ121" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="122" spans="36:36">
+      <c r="AJ122" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="123" spans="36:36">
+      <c r="AJ123" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="124" spans="36:36">
+      <c r="AJ124" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="125" spans="36:36">
+      <c r="AJ125" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="126" spans="36:36">
+      <c r="AJ126" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="127" spans="36:36">
+      <c r="AJ127" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="36:36">
+      <c r="AJ128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="36:36">
+      <c r="AJ129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="36:36">
+      <c r="AJ130" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="131" spans="36:36">
+      <c r="AJ131" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="132" spans="36:36">
+      <c r="AJ132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="36:36">
+      <c r="AJ133" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="134" spans="36:36">
+      <c r="AJ134" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="135" spans="36:36">
+      <c r="AJ135" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="36:36">
+      <c r="AJ136" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="137" spans="36:36">
+      <c r="AJ137" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="36:36">
+      <c r="AJ138" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="36:36">
+      <c r="AJ139" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="140" spans="36:36">
+      <c r="AJ140" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="36:36">
+      <c r="AJ141" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="142" spans="36:36">
+      <c r="AJ142" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="143" spans="36:36">
+      <c r="AJ143" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="144" spans="36:36">
+      <c r="AJ144" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="145" spans="36:36">
+      <c r="AJ145" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="146" spans="36:36">
+      <c r="AJ146" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="36:36">
+      <c r="AJ147" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="36:36">
+      <c r="AJ148" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="149" spans="36:36">
+      <c r="AJ149" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="150" spans="36:36">
+      <c r="AJ150" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="151" spans="36:36">
+      <c r="AJ151" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="152" spans="36:36">
+      <c r="AJ152" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="153" spans="36:36">
+      <c r="AJ153" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="154" spans="36:36">
+      <c r="AJ154" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="36:36">
+      <c r="AJ155" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="36:36">
+      <c r="AJ156" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="36:36">
+      <c r="AJ157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="158" spans="36:36">
+      <c r="AJ158" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="159" spans="36:36">
+      <c r="AJ159" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="36:36">
+      <c r="AJ160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="36:36">
+      <c r="AJ161" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="162" spans="36:36">
+      <c r="AJ162" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="36:36">
+      <c r="AJ163" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="164" spans="36:36">
+      <c r="AJ164" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165" spans="36:36">
+      <c r="AJ165" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="166" spans="36:36">
+      <c r="AJ166" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="167" spans="36:36">
+      <c r="AJ167" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="36:36">
+      <c r="AJ168" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="36:36">
+      <c r="AJ169" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="170" spans="36:36">
+      <c r="AJ170" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="36:36">
+      <c r="AJ171" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="172" spans="36:36">
+      <c r="AJ172" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="173" spans="36:36">
+      <c r="AJ173" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="36:36">
+      <c r="AJ174" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="175" spans="36:36">
+      <c r="AJ175" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="176" spans="36:36">
+      <c r="AJ176" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="177" spans="36:36">
+      <c r="AJ177" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="178" spans="36:36">
+      <c r="AJ178" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="179" spans="36:36">
+      <c r="AJ179" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="180" spans="36:36">
+      <c r="AJ180" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="181" spans="36:36">
+      <c r="AJ181" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="182" spans="36:36">
+      <c r="AJ182" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="183" spans="36:36">
+      <c r="AJ183" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="184" spans="36:36">
+      <c r="AJ184" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="185" spans="36:36">
+      <c r="AJ185" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="186" spans="36:36">
+      <c r="AJ186" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="187" spans="36:36">
+      <c r="AJ187" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="188" spans="36:36">
+      <c r="AJ188" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="189" spans="36:36">
+      <c r="AJ189" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="190" spans="36:36">
+      <c r="AJ190" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="191" spans="36:36">
+      <c r="AJ191" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="36:36">
+      <c r="AJ192" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="193" spans="36:36">
+      <c r="AJ193" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="194" spans="36:36">
+      <c r="AJ194" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="195" spans="36:36">
+      <c r="AJ195" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="196" spans="36:36">
+      <c r="AJ196" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="197" spans="36:36">
+      <c r="AJ197" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="198" spans="36:36">
+      <c r="AJ198" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="199" spans="36:36">
+      <c r="AJ199" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="200" spans="36:36">
+      <c r="AJ200" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="201" spans="36:36">
+      <c r="AJ201" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="202" spans="36:36">
+      <c r="AJ202" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="203" spans="36:36">
+      <c r="AJ203" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="36:36">
+      <c r="AJ204" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="205" spans="36:36">
+      <c r="AJ205" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="206" spans="36:36">
+      <c r="AJ206" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="207" spans="36:36">
+      <c r="AJ207" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="208" spans="36:36">
+      <c r="AJ208" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="209" spans="36:36">
+      <c r="AJ209" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="210" spans="36:36">
+      <c r="AJ210" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="211" spans="36:36">
+      <c r="AJ211" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="212" spans="36:36">
+      <c r="AJ212" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="213" spans="36:36">
+      <c r="AJ213" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="214" spans="36:36">
+      <c r="AJ214" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="215" spans="36:36">
+      <c r="AJ215" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="216" spans="36:36">
+      <c r="AJ216" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="217" spans="36:36">
+      <c r="AJ217" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="218" spans="36:36">
+      <c r="AJ218" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="219" spans="36:36">
+      <c r="AJ219" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="220" spans="36:36">
+      <c r="AJ220" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="221" spans="36:36">
+      <c r="AJ221" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="222" spans="36:36">
+      <c r="AJ222" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="223" spans="36:36">
+      <c r="AJ223" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="224" spans="36:36">
+      <c r="AJ224" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="225" spans="36:36">
+      <c r="AJ225" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="226" spans="36:36">
+      <c r="AJ226" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="227" spans="36:36">
+      <c r="AJ227" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="228" spans="36:36">
+      <c r="AJ228" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="229" spans="36:36">
+      <c r="AJ229" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="230" spans="36:36">
+      <c r="AJ230" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="231" spans="36:36">
+      <c r="AJ231" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="232" spans="36:36">
+      <c r="AJ232" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="233" spans="36:36">
+      <c r="AJ233" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="234" spans="36:36">
+      <c r="AJ234" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="235" spans="36:36">
+      <c r="AJ235" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="236" spans="36:36">
+      <c r="AJ236" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="237" spans="36:36">
+      <c r="AJ237" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="238" spans="36:36">
+      <c r="AJ238" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="239" spans="36:36">
+      <c r="AJ239" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="240" spans="36:36">
+      <c r="AJ240" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="241" spans="36:36">
+      <c r="AJ241" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="242" spans="36:36">
+      <c r="AJ242" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="243" spans="36:36">
+      <c r="AJ243" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="244" spans="36:36">
+      <c r="AJ244" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="245" spans="36:36">
+      <c r="AJ245" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="246" spans="36:36">
+      <c r="AJ246" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="247" spans="36:36">
+      <c r="AJ247" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="248" spans="36:36">
+      <c r="AJ248" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="249" spans="36:36">
+      <c r="AJ249" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="250" spans="36:36">
+      <c r="AJ250" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="251" spans="36:36">
+      <c r="AJ251" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="252" spans="36:36">
+      <c r="AJ252" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="253" spans="36:36">
+      <c r="AJ253" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="254" spans="36:36">
+      <c r="AJ254" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="255" spans="36:36">
+      <c r="AJ255" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="256" spans="36:36">
+      <c r="AJ256" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="257" spans="36:36">
+      <c r="AJ257" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="258" spans="36:36">
+      <c r="AJ258" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="259" spans="36:36">
+      <c r="AJ259" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260" spans="36:36">
+      <c r="AJ260" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="261" spans="36:36">
+      <c r="AJ261" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="262" spans="36:36">
+      <c r="AJ262" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="263" spans="36:36">
+      <c r="AJ263" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="264" spans="36:36">
+      <c r="AJ264" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="265" spans="36:36">
+      <c r="AJ265" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="266" spans="36:36">
+      <c r="AJ266" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="267" spans="36:36">
+      <c r="AJ267" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="268" spans="36:36">
+      <c r="AJ268" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="269" spans="36:36">
+      <c r="AJ269" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="270" spans="36:36">
+      <c r="AJ270" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="271" spans="36:36">
+      <c r="AJ271" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="272" spans="36:36">
+      <c r="AJ272" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="273" spans="36:36">
+      <c r="AJ273" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="274" spans="36:36">
+      <c r="AJ274" t="s">
         <v>615</v>
       </c>
-      <c r="AN3" t="s">
-        <v>646</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>662</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>689</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="8:62">
-      <c r="AG4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM4" t="s">
+    </row>
+    <row r="275" spans="36:36">
+      <c r="AJ275" t="s">
         <v>616</v>
       </c>
-      <c r="AN4" t="s">
-        <v>615</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>690</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="8:62">
-      <c r="AG5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM5" t="s">
+    </row>
+    <row r="276" spans="36:36">
+      <c r="AJ276" t="s">
         <v>617</v>
       </c>
-      <c r="AN5" t="s">
-        <v>616</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="8:62">
-      <c r="AG6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AM6" t="s">
+    </row>
+    <row r="277" spans="36:36">
+      <c r="AJ277" t="s">
         <v>618</v>
       </c>
-      <c r="AN6" t="s">
-        <v>617</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="7" spans="8:62">
-      <c r="AG7" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM7" t="s">
+    </row>
+    <row r="278" spans="36:36">
+      <c r="AJ278" t="s">
         <v>619</v>
       </c>
-      <c r="AN7" t="s">
-        <v>618</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="8" spans="8:62">
-      <c r="AH8" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM8" t="s">
+    </row>
+    <row r="279" spans="36:36">
+      <c r="AJ279" t="s">
         <v>620</v>
       </c>
-      <c r="AN8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="9" spans="8:62">
-      <c r="AH9" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM9" t="s">
+    </row>
+    <row r="280" spans="36:36">
+      <c r="AJ280" t="s">
         <v>621</v>
       </c>
-      <c r="AN9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="10" spans="8:62">
-      <c r="AH10" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM10" t="s">
+    </row>
+    <row r="281" spans="36:36">
+      <c r="AJ281" t="s">
         <v>622</v>
       </c>
-      <c r="AN10" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="8:62">
-      <c r="AH11" t="s">
-        <v>348</v>
-      </c>
-      <c r="AM11" t="s">
+    </row>
+    <row r="282" spans="36:36">
+      <c r="AJ282" t="s">
         <v>623</v>
       </c>
-      <c r="AN11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="12" spans="8:62">
-      <c r="AH12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM12" t="s">
+    </row>
+    <row r="283" spans="36:36">
+      <c r="AJ283" t="s">
         <v>624</v>
       </c>
-      <c r="AN12" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="13" spans="8:62">
-      <c r="AH13" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM13" t="s">
+    </row>
+    <row r="284" spans="36:36">
+      <c r="AJ284" t="s">
         <v>625</v>
       </c>
-      <c r="AN13" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="14" spans="8:62">
-      <c r="AH14" t="s">
-        <v>351</v>
-      </c>
-      <c r="AM14" t="s">
+    </row>
+    <row r="285" spans="36:36">
+      <c r="AJ285" t="s">
         <v>626</v>
       </c>
-      <c r="AN14" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="15" spans="8:62">
-      <c r="AH15" t="s">
-        <v>352</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="16" spans="8:62">
-      <c r="AH16" t="s">
-        <v>353</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="34:40">
-      <c r="AH17" t="s">
-        <v>354</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="34:40">
-      <c r="AH18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="19" spans="34:40">
-      <c r="AH19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="20" spans="34:40">
-      <c r="AH20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="34:40">
-      <c r="AH21" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="34:40">
-      <c r="AH22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="34:40">
-      <c r="AH23" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="24" spans="34:40">
-      <c r="AH24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="34:40">
-      <c r="AH25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="26" spans="34:40">
-      <c r="AH26" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="34:40">
-      <c r="AH27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="28" spans="34:40">
-      <c r="AH28" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="29" spans="34:40">
-      <c r="AH29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="34:40">
-      <c r="AH30" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="31" spans="34:40">
-      <c r="AH31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="34:40">
-      <c r="AH32" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="33" spans="34:34">
-      <c r="AH33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="34:34">
-      <c r="AH34" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="34:34">
-      <c r="AH35" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="34:34">
-      <c r="AH36" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="34:34">
-      <c r="AH37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="34:34">
-      <c r="AH38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="34:34">
-      <c r="AH39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="34:34">
-      <c r="AH40" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="41" spans="34:34">
-      <c r="AH41" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="34:34">
-      <c r="AH42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="34:34">
-      <c r="AH43" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="34:34">
-      <c r="AH44" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="45" spans="34:34">
-      <c r="AH45" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="46" spans="34:34">
-      <c r="AH46" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="34:34">
-      <c r="AH47" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="34:34">
-      <c r="AH48" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="34:34">
-      <c r="AH49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="34:34">
-      <c r="AH50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="34:34">
-      <c r="AH51" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="52" spans="34:34">
-      <c r="AH52" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="34:34">
-      <c r="AH53" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" spans="34:34">
-      <c r="AH54" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="55" spans="34:34">
-      <c r="AH55" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="34:34">
-      <c r="AH56" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="34:34">
-      <c r="AH57" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="58" spans="34:34">
-      <c r="AH58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="34:34">
-      <c r="AH59" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="60" spans="34:34">
-      <c r="AH60" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="61" spans="34:34">
-      <c r="AH61" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="62" spans="34:34">
-      <c r="AH62" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="63" spans="34:34">
-      <c r="AH63" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="64" spans="34:34">
-      <c r="AH64" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="34:34">
-      <c r="AH65" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="66" spans="34:34">
-      <c r="AH66" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="67" spans="34:34">
-      <c r="AH67" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="68" spans="34:34">
-      <c r="AH68" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="69" spans="34:34">
-      <c r="AH69" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="70" spans="34:34">
-      <c r="AH70" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="71" spans="34:34">
-      <c r="AH71" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="72" spans="34:34">
-      <c r="AH72" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="34:34">
-      <c r="AH73" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="74" spans="34:34">
-      <c r="AH74" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="75" spans="34:34">
-      <c r="AH75" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="76" spans="34:34">
-      <c r="AH76" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="77" spans="34:34">
-      <c r="AH77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="34:34">
-      <c r="AH78" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="79" spans="34:34">
-      <c r="AH79" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="80" spans="34:34">
-      <c r="AH80" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="81" spans="34:34">
-      <c r="AH81" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="82" spans="34:34">
-      <c r="AH82" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="83" spans="34:34">
-      <c r="AH83" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="84" spans="34:34">
-      <c r="AH84" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="85" spans="34:34">
-      <c r="AH85" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="86" spans="34:34">
-      <c r="AH86" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="87" spans="34:34">
-      <c r="AH87" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="88" spans="34:34">
-      <c r="AH88" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="89" spans="34:34">
-      <c r="AH89" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" spans="34:34">
-      <c r="AH90" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="91" spans="34:34">
-      <c r="AH91" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="92" spans="34:34">
-      <c r="AH92" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="93" spans="34:34">
-      <c r="AH93" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="94" spans="34:34">
-      <c r="AH94" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="95" spans="34:34">
-      <c r="AH95" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="34:34">
-      <c r="AH96" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="97" spans="34:34">
-      <c r="AH97" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="34:34">
-      <c r="AH98" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="99" spans="34:34">
-      <c r="AH99" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="100" spans="34:34">
-      <c r="AH100" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="34:34">
-      <c r="AH101" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="102" spans="34:34">
-      <c r="AH102" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="103" spans="34:34">
-      <c r="AH103" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="34:34">
-      <c r="AH104" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="34:34">
-      <c r="AH105" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="106" spans="34:34">
-      <c r="AH106" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="107" spans="34:34">
-      <c r="AH107" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="108" spans="34:34">
-      <c r="AH108" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="109" spans="34:34">
-      <c r="AH109" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="110" spans="34:34">
-      <c r="AH110" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="111" spans="34:34">
-      <c r="AH111" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="112" spans="34:34">
-      <c r="AH112" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="113" spans="34:34">
-      <c r="AH113" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="114" spans="34:34">
-      <c r="AH114" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="115" spans="34:34">
-      <c r="AH115" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="34:34">
-      <c r="AH116" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="117" spans="34:34">
-      <c r="AH117" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="118" spans="34:34">
-      <c r="AH118" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="119" spans="34:34">
-      <c r="AH119" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="120" spans="34:34">
-      <c r="AH120" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="121" spans="34:34">
-      <c r="AH121" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="122" spans="34:34">
-      <c r="AH122" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="34:34">
-      <c r="AH123" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="124" spans="34:34">
-      <c r="AH124" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="125" spans="34:34">
-      <c r="AH125" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="126" spans="34:34">
-      <c r="AH126" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="34:34">
-      <c r="AH127" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="128" spans="34:34">
-      <c r="AH128" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="129" spans="34:34">
-      <c r="AH129" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="130" spans="34:34">
-      <c r="AH130" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="131" spans="34:34">
-      <c r="AH131" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="132" spans="34:34">
-      <c r="AH132" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" spans="34:34">
-      <c r="AH133" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="134" spans="34:34">
-      <c r="AH134" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="135" spans="34:34">
-      <c r="AH135" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="136" spans="34:34">
-      <c r="AH136" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="137" spans="34:34">
-      <c r="AH137" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="34:34">
-      <c r="AH138" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="139" spans="34:34">
-      <c r="AH139" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="140" spans="34:34">
-      <c r="AH140" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="141" spans="34:34">
-      <c r="AH141" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="34:34">
-      <c r="AH142" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="34:34">
-      <c r="AH143" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="34:34">
-      <c r="AH144" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="145" spans="34:34">
-      <c r="AH145" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="146" spans="34:34">
-      <c r="AH146" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="147" spans="34:34">
-      <c r="AH147" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="148" spans="34:34">
-      <c r="AH148" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="149" spans="34:34">
-      <c r="AH149" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="150" spans="34:34">
-      <c r="AH150" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="151" spans="34:34">
-      <c r="AH151" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="152" spans="34:34">
-      <c r="AH152" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="153" spans="34:34">
-      <c r="AH153" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="154" spans="34:34">
-      <c r="AH154" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="155" spans="34:34">
-      <c r="AH155" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="156" spans="34:34">
-      <c r="AH156" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="157" spans="34:34">
-      <c r="AH157" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="158" spans="34:34">
-      <c r="AH158" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="159" spans="34:34">
-      <c r="AH159" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="160" spans="34:34">
-      <c r="AH160" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="161" spans="34:34">
-      <c r="AH161" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="162" spans="34:34">
-      <c r="AH162" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="163" spans="34:34">
-      <c r="AH163" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="164" spans="34:34">
-      <c r="AH164" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="165" spans="34:34">
-      <c r="AH165" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="166" spans="34:34">
-      <c r="AH166" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="167" spans="34:34">
-      <c r="AH167" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="168" spans="34:34">
-      <c r="AH168" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="169" spans="34:34">
-      <c r="AH169" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="170" spans="34:34">
-      <c r="AH170" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="171" spans="34:34">
-      <c r="AH171" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="172" spans="34:34">
-      <c r="AH172" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="173" spans="34:34">
-      <c r="AH173" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="174" spans="34:34">
-      <c r="AH174" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="175" spans="34:34">
-      <c r="AH175" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="176" spans="34:34">
-      <c r="AH176" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="177" spans="34:34">
-      <c r="AH177" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="178" spans="34:34">
-      <c r="AH178" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="179" spans="34:34">
-      <c r="AH179" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="180" spans="34:34">
-      <c r="AH180" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="181" spans="34:34">
-      <c r="AH181" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="182" spans="34:34">
-      <c r="AH182" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="183" spans="34:34">
-      <c r="AH183" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="184" spans="34:34">
-      <c r="AH184" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="185" spans="34:34">
-      <c r="AH185" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="186" spans="34:34">
-      <c r="AH186" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="187" spans="34:34">
-      <c r="AH187" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="188" spans="34:34">
-      <c r="AH188" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="189" spans="34:34">
-      <c r="AH189" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="190" spans="34:34">
-      <c r="AH190" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="191" spans="34:34">
-      <c r="AH191" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="192" spans="34:34">
-      <c r="AH192" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="193" spans="34:34">
-      <c r="AH193" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="194" spans="34:34">
-      <c r="AH194" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="195" spans="34:34">
-      <c r="AH195" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="196" spans="34:34">
-      <c r="AH196" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="197" spans="34:34">
-      <c r="AH197" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="198" spans="34:34">
-      <c r="AH198" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="199" spans="34:34">
-      <c r="AH199" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="200" spans="34:34">
-      <c r="AH200" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="201" spans="34:34">
-      <c r="AH201" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="202" spans="34:34">
-      <c r="AH202" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="203" spans="34:34">
-      <c r="AH203" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="204" spans="34:34">
-      <c r="AH204" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="205" spans="34:34">
-      <c r="AH205" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="206" spans="34:34">
-      <c r="AH206" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="207" spans="34:34">
-      <c r="AH207" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="208" spans="34:34">
-      <c r="AH208" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="209" spans="34:34">
-      <c r="AH209" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="210" spans="34:34">
-      <c r="AH210" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="211" spans="34:34">
-      <c r="AH211" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="212" spans="34:34">
-      <c r="AH212" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="213" spans="34:34">
-      <c r="AH213" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="214" spans="34:34">
-      <c r="AH214" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="215" spans="34:34">
-      <c r="AH215" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="216" spans="34:34">
-      <c r="AH216" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="217" spans="34:34">
-      <c r="AH217" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="218" spans="34:34">
-      <c r="AH218" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="219" spans="34:34">
-      <c r="AH219" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="220" spans="34:34">
-      <c r="AH220" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="221" spans="34:34">
-      <c r="AH221" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="222" spans="34:34">
-      <c r="AH222" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="223" spans="34:34">
-      <c r="AH223" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="224" spans="34:34">
-      <c r="AH224" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="225" spans="34:34">
-      <c r="AH225" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="226" spans="34:34">
-      <c r="AH226" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="227" spans="34:34">
-      <c r="AH227" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="228" spans="34:34">
-      <c r="AH228" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="229" spans="34:34">
-      <c r="AH229" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="230" spans="34:34">
-      <c r="AH230" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="231" spans="34:34">
-      <c r="AH231" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="232" spans="34:34">
-      <c r="AH232" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="233" spans="34:34">
-      <c r="AH233" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="234" spans="34:34">
-      <c r="AH234" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="235" spans="34:34">
-      <c r="AH235" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="236" spans="34:34">
-      <c r="AH236" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="237" spans="34:34">
-      <c r="AH237" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="238" spans="34:34">
-      <c r="AH238" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="239" spans="34:34">
-      <c r="AH239" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="240" spans="34:34">
-      <c r="AH240" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="241" spans="34:34">
-      <c r="AH241" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="242" spans="34:34">
-      <c r="AH242" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="243" spans="34:34">
-      <c r="AH243" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="244" spans="34:34">
-      <c r="AH244" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="245" spans="34:34">
-      <c r="AH245" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="246" spans="34:34">
-      <c r="AH246" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="247" spans="34:34">
-      <c r="AH247" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="248" spans="34:34">
-      <c r="AH248" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="249" spans="34:34">
-      <c r="AH249" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="250" spans="34:34">
-      <c r="AH250" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="251" spans="34:34">
-      <c r="AH251" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="252" spans="34:34">
-      <c r="AH252" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="253" spans="34:34">
-      <c r="AH253" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="254" spans="34:34">
-      <c r="AH254" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="255" spans="34:34">
-      <c r="AH255" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="256" spans="34:34">
-      <c r="AH256" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="257" spans="34:34">
-      <c r="AH257" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="258" spans="34:34">
-      <c r="AH258" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="259" spans="34:34">
-      <c r="AH259" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="260" spans="34:34">
-      <c r="AH260" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="261" spans="34:34">
-      <c r="AH261" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="262" spans="34:34">
-      <c r="AH262" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="263" spans="34:34">
-      <c r="AH263" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="264" spans="34:34">
-      <c r="AH264" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="265" spans="34:34">
-      <c r="AH265" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="266" spans="34:34">
-      <c r="AH266" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="267" spans="34:34">
-      <c r="AH267" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="268" spans="34:34">
-      <c r="AH268" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="269" spans="34:34">
-      <c r="AH269" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="270" spans="34:34">
-      <c r="AH270" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="271" spans="34:34">
-      <c r="AH271" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="272" spans="34:34">
-      <c r="AH272" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="273" spans="34:34">
-      <c r="AH273" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="274" spans="34:34">
-      <c r="AH274" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="275" spans="34:34">
-      <c r="AH275" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="276" spans="34:34">
-      <c r="AH276" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="277" spans="34:34">
-      <c r="AH277" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="278" spans="34:34">
-      <c r="AH278" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="279" spans="34:34">
-      <c r="AH279" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="280" spans="34:34">
-      <c r="AH280" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="281" spans="34:34">
-      <c r="AH281" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="282" spans="34:34">
-      <c r="AH282" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="283" spans="34:34">
-      <c r="AH283" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="284" spans="34:34">
-      <c r="AH284" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="285" spans="34:34">
-      <c r="AH285" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="286" spans="34:34">
-      <c r="AH286" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="287" spans="34:34">
-      <c r="AH287" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="288" spans="34:34">
-      <c r="AH288" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="289" spans="34:34">
-      <c r="AH289" t="s">
-        <v>626</v>
+    </row>
+    <row r="286" spans="36:36">
+      <c r="AJ286" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="287" spans="36:36">
+      <c r="AJ287" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="288" spans="36:36">
+      <c r="AJ288" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="289" spans="36:36">
+      <c r="AJ289" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$O$1:$O$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BL$1:$BL$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$AK$1:$AK$3</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="717">
   <si>
     <t>alias</t>
   </si>
@@ -1044,7 +1044,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: week, month, year, day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1284,9 +1284,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1305,6 +1302,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1506,6 +1506,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1515,9 +1518,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1557,7 +1557,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1626,6 +1626,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1701,6 +1704,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1722,6 +1728,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1767,6 +1776,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1779,6 +1791,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1788,9 +1803,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1815,6 +1827,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1875,12 +1890,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1974,7 +1989,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>diseased</t>
@@ -3828,94 +3843,94 @@
         <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" customHeight="1">
@@ -4025,94 +4040,94 @@
         <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -4163,7 +4178,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BL289"/>
+  <dimension ref="J1:BL294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4189,25 +4204,25 @@
         <v>342</v>
       </c>
       <c r="AK1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AO1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AP1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AV1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AZ1" t="s">
         <v>280</v>
       </c>
       <c r="BH1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BL1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="10:64">
@@ -4230,25 +4245,25 @@
         <v>343</v>
       </c>
       <c r="AK2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AO2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AP2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AV2" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AZ2" t="s">
         <v>281</v>
       </c>
       <c r="BH2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BL2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="10:64">
@@ -4259,19 +4274,19 @@
         <v>344</v>
       </c>
       <c r="AK3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AO3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AP3" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AV3" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="BH3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BL3" t="s">
         <v>116</v>
@@ -4285,16 +4300,16 @@
         <v>345</v>
       </c>
       <c r="AO4" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AP4" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="BH4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BL4" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="10:64">
@@ -4305,10 +4320,10 @@
         <v>346</v>
       </c>
       <c r="AO5" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AP5" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="BH5" t="s">
         <v>116</v>
@@ -4322,13 +4337,13 @@
         <v>347</v>
       </c>
       <c r="AO6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AP6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="BH6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="10:64">
@@ -4339,13 +4354,13 @@
         <v>348</v>
       </c>
       <c r="AO7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AP7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="BH7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="10:64">
@@ -4353,10 +4368,10 @@
         <v>349</v>
       </c>
       <c r="AO8" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AP8" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="10:64">
@@ -4364,10 +4379,10 @@
         <v>350</v>
       </c>
       <c r="AO9" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AP9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="10:64">
@@ -4375,10 +4390,10 @@
         <v>351</v>
       </c>
       <c r="AO10" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AP10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="10:64">
@@ -4386,10 +4401,10 @@
         <v>352</v>
       </c>
       <c r="AO11" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AP11" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="10:64">
@@ -4397,10 +4412,10 @@
         <v>353</v>
       </c>
       <c r="AO12" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AP12" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="10:64">
@@ -4408,10 +4423,10 @@
         <v>354</v>
       </c>
       <c r="AO13" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AP13" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="10:64">
@@ -4419,10 +4434,10 @@
         <v>355</v>
       </c>
       <c r="AO14" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AP14" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="10:64">
@@ -4430,7 +4445,7 @@
         <v>356</v>
       </c>
       <c r="AP15" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="10:64">
@@ -4446,7 +4461,7 @@
         <v>358</v>
       </c>
       <c r="AP17" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="36:42">
@@ -5807,6 +5822,31 @@
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
         <v>630</v>
+      </c>
+    </row>
+    <row r="290" spans="36:36">
+      <c r="AJ290" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="291" spans="36:36">
+      <c r="AJ291" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="36:36">
+      <c r="AJ292" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="293" spans="36:36">
+      <c r="AJ293" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="294" spans="36:36">
+      <c r="AJ294" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000032/metadata_template_ERC000032.xlsx
+++ b/templates/ERC000032/metadata_template_ERC000032.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$O$1:$O$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$BL$1:$BL$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$AK$1:$AK$3</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="717">
   <si>
     <t>alias</t>
   </si>
@@ -1044,7 +1044,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1284,9 +1284,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1305,6 +1302,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1506,6 +1506,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1515,9 +1518,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1557,7 +1557,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1626,6 +1626,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1701,6 +1704,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1722,6 +1728,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1767,6 +1776,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1779,6 +1791,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1788,9 +1803,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1815,6 +1827,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1875,10 +1890,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3828,94 +3843,94 @@
         <v>340</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:65" ht="150" customHeight="1">
@@ -4025,94 +4040,94 @@
         <v>341</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -4163,7 +4178,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:BL289"/>
+  <dimension ref="J1:BL294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4189,25 +4204,25 @@
         <v>342</v>
       </c>
       <c r="AK1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AO1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AP1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AV1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="AZ1" t="s">
         <v>280</v>
       </c>
       <c r="BH1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="BL1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="10:64">
@@ -4230,25 +4245,25 @@
         <v>343</v>
       </c>
       <c r="AK2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AO2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AP2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AV2" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="AZ2" t="s">
         <v>281</v>
       </c>
       <c r="BH2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="BL2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="10:64">
@@ -4259,19 +4274,19 @@
         <v>344</v>
       </c>
       <c r="AK3" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AO3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AP3" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AV3" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="BH3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="BL3" t="s">
         <v>116</v>
@@ -4285,16 +4300,16 @@
         <v>345</v>
       </c>
       <c r="AO4" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AP4" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="BH4" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BL4" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="10:64">
@@ -4305,10 +4320,10 @@
         <v>346</v>
       </c>
       <c r="AO5" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AP5" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="BH5" t="s">
         <v>116</v>
@@ -4322,13 +4337,13 @@
         <v>347</v>
       </c>
       <c r="AO6" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AP6" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="BH6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="10:64">
@@ -4339,13 +4354,13 @@
         <v>348</v>
       </c>
       <c r="AO7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AP7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="BH7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="10:64">
@@ -4353,10 +4368,10 @@
         <v>349</v>
       </c>
       <c r="AO8" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AP8" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="10:64">
@@ -4364,10 +4379,10 @@
         <v>350</v>
       </c>
       <c r="AO9" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AP9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="10:64">
@@ -4375,10 +4390,10 @@
         <v>351</v>
       </c>
       <c r="AO10" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AP10" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="10:64">
@@ -4386,10 +4401,10 @@
         <v>352</v>
       </c>
       <c r="AO11" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AP11" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="10:64">
@@ -4397,10 +4412,10 @@
         <v>353</v>
       </c>
       <c r="AO12" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AP12" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="10:64">
@@ -4408,10 +4423,10 @@
         <v>354</v>
       </c>
       <c r="AO13" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AP13" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="10:64">
@@ -4419,10 +4434,10 @@
         <v>355</v>
       </c>
       <c r="AO14" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AP14" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="10:64">
@@ -4430,7 +4445,7 @@
         <v>356</v>
       </c>
       <c r="AP15" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="10:64">
@@ -4446,7 +4461,7 @@
         <v>358</v>
       </c>
       <c r="AP17" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18" spans="36:42">
@@ -5807,6 +5822,31 @@
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
         <v>630</v>
+      </c>
+    </row>
+    <row r="290" spans="36:36">
+      <c r="AJ290" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="291" spans="36:36">
+      <c r="AJ291" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="36:36">
+      <c r="AJ292" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="293" spans="36:36">
+      <c r="AJ293" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="294" spans="36:36">
+      <c r="AJ294" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
